--- a/outcome/appendix/model/index/pre-epidemic.xlsx
+++ b/outcome/appendix/model/index/pre-epidemic.xlsx
@@ -1030,10 +1030,10 @@
         <v>294.738465100833</v>
       </c>
       <c r="C35" t="n">
-        <v>308.074252983264</v>
+        <v>276.110396133468</v>
       </c>
       <c r="D35" t="n">
-        <v>297.002682199216</v>
+        <v>291.716404778955</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1047,10 +1047,10 @@
         <v>0.778995378983527</v>
       </c>
       <c r="C36" t="n">
-        <v>0.654694767044532</v>
+        <v>0.686245240258349</v>
       </c>
       <c r="D36" t="n">
-        <v>0.774275063979853</v>
+        <v>0.777921761233371</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -1064,10 +1064,10 @@
         <v>195.060178683329</v>
       </c>
       <c r="C37" t="n">
-        <v>205.91242461934</v>
+        <v>196.20351014879</v>
       </c>
       <c r="D37" t="n">
-        <v>196.868886339331</v>
+        <v>195.250733927573</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -1336,10 +1336,10 @@
         <v>210.907317600442</v>
       </c>
       <c r="C53" t="n">
-        <v>242.222859327304</v>
+        <v>237.450229420349</v>
       </c>
       <c r="D53" t="n">
-        <v>216.4414457645</v>
+        <v>215.558226680884</v>
       </c>
       <c r="E53" t="s">
         <v>13</v>
@@ -1353,10 +1353,10 @@
         <v>0.762441267392561</v>
       </c>
       <c r="C54" t="n">
-        <v>0.707127873489667</v>
+        <v>0.699710748478564</v>
       </c>
       <c r="D54" t="n">
-        <v>0.742262756275944</v>
+        <v>0.743476211509858</v>
       </c>
       <c r="E54" t="s">
         <v>13</v>
@@ -1370,10 +1370,10 @@
         <v>133.05555715163</v>
       </c>
       <c r="C55" t="n">
-        <v>201.488131373793</v>
+        <v>196.627042346893</v>
       </c>
       <c r="D55" t="n">
-        <v>144.460986188657</v>
+        <v>143.650804684174</v>
       </c>
       <c r="E55" t="s">
         <v>13</v>
@@ -1642,10 +1642,10 @@
         <v>23734.8970348508</v>
       </c>
       <c r="C71" t="n">
-        <v>8782.42354130076</v>
+        <v>9875.78595500332</v>
       </c>
       <c r="D71" t="n">
-        <v>21961.5484029612</v>
+        <v>22038.8211818142</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -1659,10 +1659,10 @@
         <v>0.000577714079741146</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0488267283104346</v>
+        <v>0.00301456126900357</v>
       </c>
       <c r="D72" t="n">
-        <v>0.000818769298686823</v>
+        <v>0.000701346567964727</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -1676,10 +1676,10 @@
         <v>7712.6386734476</v>
       </c>
       <c r="C73" t="n">
-        <v>6522.05600510871</v>
+        <v>7412.28143113369</v>
       </c>
       <c r="D73" t="n">
-        <v>7514.20822872446</v>
+        <v>7662.57913306195</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -1948,10 +1948,10 @@
         <v>4790.92800057429</v>
       </c>
       <c r="C89" t="n">
-        <v>33794.5249215438</v>
+        <v>29404.5259576534</v>
       </c>
       <c r="D89" t="n">
-        <v>14473.1640758928</v>
+        <v>12776.2220702349</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -1965,10 +1965,10 @@
         <v>0.81620119645318</v>
       </c>
       <c r="C90" t="n">
-        <v>0.183127507845247</v>
+        <v>0.242248202765315</v>
       </c>
       <c r="D90" t="n">
-        <v>0.191468533600491</v>
+        <v>0.260812529136833</v>
       </c>
       <c r="E90" t="s">
         <v>15</v>
@@ -1982,10 +1982,10 @@
         <v>2615.78025230713</v>
       </c>
       <c r="C91" t="n">
-        <v>29868.8467934692</v>
+        <v>26024.0578686214</v>
       </c>
       <c r="D91" t="n">
-        <v>7157.95800916747</v>
+        <v>6517.15985502617</v>
       </c>
       <c r="E91" t="s">
         <v>15</v>
@@ -2254,10 +2254,10 @@
         <v>54576.1025975351</v>
       </c>
       <c r="C107" t="n">
-        <v>72179.433324707</v>
+        <v>74036.2476277874</v>
       </c>
       <c r="D107" t="n">
-        <v>57882.9644897921</v>
+        <v>58272.521878507</v>
       </c>
       <c r="E107" t="s">
         <v>16</v>
@@ -2271,10 +2271,10 @@
         <v>0.777755586833564</v>
       </c>
       <c r="C108" t="n">
-        <v>0.768814932703285</v>
+        <v>0.765369487716554</v>
       </c>
       <c r="D108" t="n">
-        <v>0.755339566003209</v>
+        <v>0.752344646418036</v>
       </c>
       <c r="E108" t="s">
         <v>16</v>
@@ -2288,10 +2288,10 @@
         <v>39417.0790886871</v>
       </c>
       <c r="C109" t="n">
-        <v>57598.0873672512</v>
+        <v>58625.6585991011</v>
       </c>
       <c r="D109" t="n">
-        <v>42447.2471351144</v>
+        <v>42618.5090070894</v>
       </c>
       <c r="E109" t="s">
         <v>16</v>
@@ -2560,10 +2560,10 @@
         <v>17041.6035685369</v>
       </c>
       <c r="C125" t="n">
-        <v>72536.3907970024</v>
+        <v>72178.1135962911</v>
       </c>
       <c r="D125" t="n">
-        <v>33450.4839297114</v>
+        <v>33321.0677681427</v>
       </c>
       <c r="E125" t="s">
         <v>17</v>
@@ -2577,10 +2577,10 @@
         <v>0.587775894760443</v>
       </c>
       <c r="C126" t="n">
-        <v>0.045514214797881</v>
+        <v>0.0392549367957546</v>
       </c>
       <c r="D126" t="n">
-        <v>0.499007679362925</v>
+        <v>0.498913528459567</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -2594,10 +2594,10 @@
         <v>11481.41039375</v>
       </c>
       <c r="C127" t="n">
-        <v>69822.0122442924</v>
+        <v>69606.4327579907</v>
       </c>
       <c r="D127" t="n">
-        <v>21204.844035507</v>
+        <v>21168.9141211234</v>
       </c>
       <c r="E127" t="s">
         <v>17</v>
@@ -3476,10 +3476,10 @@
         <v>216.169323449847</v>
       </c>
       <c r="C179" t="n">
-        <v>527.22947789218</v>
+        <v>523.417141878916</v>
       </c>
       <c r="D179" t="n">
-        <v>292.009361825463</v>
+        <v>290.864053702217</v>
       </c>
       <c r="E179" t="s">
         <v>20</v>
@@ -3493,10 +3493,10 @@
         <v>0.795587930430767</v>
       </c>
       <c r="C180" t="n">
-        <v>0.715498633378035</v>
+        <v>0.737728918619414</v>
       </c>
       <c r="D180" t="n">
-        <v>0.679892669066832</v>
+        <v>0.682628269454116</v>
       </c>
       <c r="E180" t="s">
         <v>20</v>
@@ -3510,10 +3510,10 @@
         <v>145.140652603346</v>
       </c>
       <c r="C181" t="n">
-        <v>472.412996092674</v>
+        <v>472.849573604462</v>
       </c>
       <c r="D181" t="n">
-        <v>199.686043184901</v>
+        <v>199.758806103532</v>
       </c>
       <c r="E181" t="s">
         <v>20</v>
@@ -3782,10 +3782,10 @@
         <v>252.574724835046</v>
       </c>
       <c r="C197" t="n">
-        <v>159.345526831654</v>
+        <v>168.310475604588</v>
       </c>
       <c r="D197" t="n">
-        <v>239.569389756132</v>
+        <v>240.588990578586</v>
       </c>
       <c r="E197" t="s">
         <v>21</v>
@@ -3799,10 +3799,10 @@
         <v>0.526678982403249</v>
       </c>
       <c r="C198" t="n">
-        <v>0.521854475405092</v>
+        <v>0.525624374335176</v>
       </c>
       <c r="D198" t="n">
-        <v>0.526317071963788</v>
+        <v>0.523812093252693</v>
       </c>
       <c r="E198" t="s">
         <v>21</v>
@@ -3816,10 +3816,10 @@
         <v>147.684504774939</v>
       </c>
       <c r="C199" t="n">
-        <v>102.999956793208</v>
+        <v>109.639583687668</v>
       </c>
       <c r="D199" t="n">
-        <v>140.237080111317</v>
+        <v>141.343684593727</v>
       </c>
       <c r="E199" t="s">
         <v>21</v>
@@ -4394,10 +4394,10 @@
         <v>70.2939827794162</v>
       </c>
       <c r="C233" t="n">
-        <v>59.0369130599781</v>
+        <v>60.7187254074313</v>
       </c>
       <c r="D233" t="n">
-        <v>68.5463069496523</v>
+        <v>68.7907257436972</v>
       </c>
       <c r="E233" t="s">
         <v>23</v>
@@ -4411,10 +4411,10 @@
         <v>0.534382106597109</v>
       </c>
       <c r="C234" t="n">
-        <v>0.366347028033492</v>
+        <v>0.39311193395049</v>
       </c>
       <c r="D234" t="n">
-        <v>0.578161982692067</v>
+        <v>0.574733737478395</v>
       </c>
       <c r="E234" t="s">
         <v>23</v>
@@ -4428,10 +4428,10 @@
         <v>53.4492730571038</v>
       </c>
       <c r="C235" t="n">
-        <v>51.4194656068153</v>
+        <v>52.6625757289202</v>
       </c>
       <c r="D235" t="n">
-        <v>53.110971815389</v>
+        <v>53.3181568357398</v>
       </c>
       <c r="E235" t="s">
         <v>23</v>
@@ -4700,10 +4700,10 @@
         <v>42.7856493697859</v>
       </c>
       <c r="C251" t="n">
-        <v>28.5350037075259</v>
+        <v>28.2957025797771</v>
       </c>
       <c r="D251" t="n">
-        <v>40.7580368282539</v>
+        <v>40.7302216714946</v>
       </c>
       <c r="E251" t="s">
         <v>24</v>
@@ -4717,10 +4717,10 @@
         <v>0.701797032349928</v>
       </c>
       <c r="C252" t="n">
-        <v>0.752542565938644</v>
+        <v>0.759460290181799</v>
       </c>
       <c r="D252" t="n">
-        <v>0.736768407454554</v>
+        <v>0.737131505985364</v>
       </c>
       <c r="E252" t="s">
         <v>24</v>
@@ -4734,10 +4734,10 @@
         <v>29.0613129428882</v>
       </c>
       <c r="C253" t="n">
-        <v>23.7065095855748</v>
+        <v>23.3076942064563</v>
       </c>
       <c r="D253" t="n">
-        <v>28.1688457166693</v>
+        <v>28.1023764868162</v>
       </c>
       <c r="E253" t="s">
         <v>24</v>
@@ -5006,10 +5006,10 @@
         <v>536.230470163635</v>
       </c>
       <c r="C269" t="n">
-        <v>654.647752550654</v>
+        <v>660.8373291381</v>
       </c>
       <c r="D269" t="n">
-        <v>557.715468911521</v>
+        <v>558.930759164607</v>
       </c>
       <c r="E269" t="s">
         <v>25</v>
@@ -5023,10 +5023,10 @@
         <v>0.893490885890576</v>
       </c>
       <c r="C270" t="n">
-        <v>0.763695030833077</v>
+        <v>0.76174633468026</v>
       </c>
       <c r="D270" t="n">
-        <v>0.91514903182009</v>
+        <v>0.914927658832495</v>
       </c>
       <c r="E270" t="s">
         <v>25</v>
@@ -5040,10 +5040,10 @@
         <v>343.623623431781</v>
       </c>
       <c r="C271" t="n">
-        <v>531.603757961552</v>
+        <v>539.23337330011</v>
       </c>
       <c r="D271" t="n">
-        <v>374.95364585341</v>
+        <v>376.225248409836</v>
       </c>
       <c r="E271" t="s">
         <v>25</v>
@@ -5312,10 +5312,10 @@
         <v>679.664405300572</v>
       </c>
       <c r="C287" t="n">
-        <v>2792.79461572625</v>
+        <v>2723.88908518566</v>
       </c>
       <c r="D287" t="n">
-        <v>1298.03828171543</v>
+        <v>1273.40032115831</v>
       </c>
       <c r="E287" t="s">
         <v>26</v>
@@ -5329,10 +5329,10 @@
         <v>0.829515710037644</v>
       </c>
       <c r="C288" t="n">
-        <v>0.167632440592345</v>
+        <v>0.178743125769698</v>
       </c>
       <c r="D288" t="n">
-        <v>0.667254295656912</v>
+        <v>0.67323462746944</v>
       </c>
       <c r="E288" t="s">
         <v>26</v>
@@ -5346,10 +5346,10 @@
         <v>445.526608135485</v>
       </c>
       <c r="C289" t="n">
-        <v>2490.60578047615</v>
+        <v>2434.02866506573</v>
       </c>
       <c r="D289" t="n">
-        <v>786.373136858929</v>
+        <v>776.943617623858</v>
       </c>
       <c r="E289" t="s">
         <v>26</v>
@@ -5618,10 +5618,10 @@
         <v>6659.57636874109</v>
       </c>
       <c r="C305" t="n">
-        <v>18768.3025732947</v>
+        <v>18977.0923189219</v>
       </c>
       <c r="D305" t="n">
-        <v>9780.92504604597</v>
+        <v>9847.8408795732</v>
       </c>
       <c r="E305" t="s">
         <v>27</v>
@@ -5635,10 +5635,10 @@
         <v>0.683508495834062</v>
       </c>
       <c r="C306" t="n">
-        <v>0.613303696293075</v>
+        <v>0.610546080754245</v>
       </c>
       <c r="D306" t="n">
-        <v>0.461439411224007</v>
+        <v>0.456290455661925</v>
       </c>
       <c r="E306" t="s">
         <v>27</v>
@@ -5652,10 +5652,10 @@
         <v>4277.81634410233</v>
       </c>
       <c r="C307" t="n">
-        <v>18158.1434986162</v>
+        <v>18368.4907173864</v>
       </c>
       <c r="D307" t="n">
-        <v>6591.20420318798</v>
+        <v>6626.26207298302</v>
       </c>
       <c r="E307" t="s">
         <v>27</v>
@@ -5924,10 +5924,10 @@
         <v>1145.48267134023</v>
       </c>
       <c r="C323" t="n">
-        <v>3029.35698750342</v>
+        <v>2979.39858048506</v>
       </c>
       <c r="D323" t="n">
-        <v>1619.55016951413</v>
+        <v>1604.02975102813</v>
       </c>
       <c r="E323" t="s">
         <v>28</v>
@@ -5941,10 +5941,10 @@
         <v>0.878106884396577</v>
       </c>
       <c r="C324" t="n">
-        <v>0.588400268721046</v>
+        <v>0.598335187523123</v>
       </c>
       <c r="D324" t="n">
-        <v>0.846495580031845</v>
+        <v>0.849264264388641</v>
       </c>
       <c r="E324" t="s">
         <v>28</v>
@@ -5958,10 +5958,10 @@
         <v>768.854477915248</v>
       </c>
       <c r="C325" t="n">
-        <v>2859.84471807132</v>
+        <v>2819.57848686119</v>
       </c>
       <c r="D325" t="n">
-        <v>1117.35285127459</v>
+        <v>1110.64181273957</v>
       </c>
       <c r="E325" t="s">
         <v>28</v>
@@ -6230,10 +6230,10 @@
         <v>2042.98747019643</v>
       </c>
       <c r="C341" t="n">
-        <v>3780.24388450413</v>
+        <v>3774.44698925516</v>
       </c>
       <c r="D341" t="n">
-        <v>2420.71727810956</v>
+        <v>2419.20920590439</v>
       </c>
       <c r="E341" t="s">
         <v>29</v>
@@ -6247,10 +6247,10 @@
         <v>0.889204779733321</v>
       </c>
       <c r="C342" t="n">
-        <v>0.788008579741198</v>
+        <v>0.797844749811488</v>
       </c>
       <c r="D342" t="n">
-        <v>0.920112053918056</v>
+        <v>0.920363837413942</v>
       </c>
       <c r="E342" t="s">
         <v>29</v>
@@ -6264,10 +6264,10 @@
         <v>1402.4605926983</v>
       </c>
       <c r="C343" t="n">
-        <v>3332.43182314159</v>
+        <v>3285.18566025232</v>
       </c>
       <c r="D343" t="n">
-        <v>1724.12246443885</v>
+        <v>1716.2481039573</v>
       </c>
       <c r="E343" t="s">
         <v>29</v>
@@ -6534,10 +6534,10 @@
         <v>82.7458054834069</v>
       </c>
       <c r="C359" t="n">
-        <v>3600.41899940134</v>
+        <v>3624.1019846279</v>
       </c>
       <c r="D359" t="n">
-        <v>1471.80452239621</v>
+        <v>1481.46040202505</v>
       </c>
       <c r="E359" t="s">
         <v>30</v>
@@ -6551,10 +6551,10 @@
         <v>0.917077059404689</v>
       </c>
       <c r="C360" t="n">
-        <v>0.0872273434325186</v>
+        <v>0.0915747821757317</v>
       </c>
       <c r="D360" t="n">
-        <v>0.34198557052664</v>
+        <v>0.349818982665305</v>
       </c>
       <c r="E360" t="s">
         <v>30</v>
@@ -6568,10 +6568,10 @@
         <v>54.228142736518</v>
       </c>
       <c r="C361" t="n">
-        <v>3245.91303815045</v>
+        <v>3269.22967267906</v>
       </c>
       <c r="D361" t="n">
-        <v>586.175625305507</v>
+        <v>590.061731060275</v>
       </c>
       <c r="E361" t="s">
         <v>30</v>
@@ -6840,10 +6840,10 @@
         <v>1197.67110359123</v>
       </c>
       <c r="C377" t="n">
-        <v>3360.13446663227</v>
+        <v>3187.86211443217</v>
       </c>
       <c r="D377" t="n">
-        <v>1754.16570842748</v>
+        <v>1699.73258791489</v>
       </c>
       <c r="E377" t="s">
         <v>31</v>
@@ -6857,10 +6857,10 @@
         <v>0.790337112224549</v>
       </c>
       <c r="C378" t="n">
-        <v>0.846971574129859</v>
+        <v>0.852262253755753</v>
       </c>
       <c r="D378" t="n">
-        <v>0.715056260556098</v>
+        <v>0.724512116833013</v>
       </c>
       <c r="E378" t="s">
         <v>31</v>
@@ -6874,10 +6874,10 @@
         <v>860.204780291174</v>
       </c>
       <c r="C379" t="n">
-        <v>2963.12138385049</v>
+        <v>2790.68111709004</v>
       </c>
       <c r="D379" t="n">
-        <v>1210.69088088439</v>
+        <v>1181.95083642432</v>
       </c>
       <c r="E379" t="s">
         <v>31</v>
@@ -7146,10 +7146,10 @@
         <v>6975.40928940519</v>
       </c>
       <c r="C395" t="n">
-        <v>18965.1890961671</v>
+        <v>19696.1236508207</v>
       </c>
       <c r="D395" t="n">
-        <v>10024.6369113547</v>
+        <v>10256.8591735971</v>
       </c>
       <c r="E395" t="s">
         <v>32</v>
@@ -7163,10 +7163,10 @@
         <v>0.813365626816101</v>
       </c>
       <c r="C396" t="n">
-        <v>0.506997258986797</v>
+        <v>0.512386540684872</v>
       </c>
       <c r="D396" t="n">
-        <v>0.637448957878048</v>
+        <v>0.625863281185061</v>
       </c>
       <c r="E396" t="s">
         <v>32</v>
@@ -7180,10 +7180,10 @@
         <v>3902.68530582952</v>
       </c>
       <c r="C397" t="n">
-        <v>17658.9316520502</v>
+        <v>18340.7482202312</v>
       </c>
       <c r="D397" t="n">
-        <v>6195.39303019963</v>
+        <v>6309.02912489647</v>
       </c>
       <c r="E397" t="s">
         <v>32</v>
@@ -7758,10 +7758,10 @@
         <v>5186.65983762203</v>
       </c>
       <c r="C431" t="n">
-        <v>2469.76463593537</v>
+        <v>2512.77263086478</v>
       </c>
       <c r="D431" t="n">
-        <v>4840.91827915813</v>
+        <v>4844.6057226987</v>
       </c>
       <c r="E431" t="s">
         <v>34</v>
@@ -7775,10 +7775,10 @@
         <v>0.535809278569916</v>
       </c>
       <c r="C432" t="n">
-        <v>0.376051472293671</v>
+        <v>0.365949160217687</v>
       </c>
       <c r="D432" t="n">
-        <v>0.533890117191742</v>
+        <v>0.533973863416745</v>
       </c>
       <c r="E432" t="s">
         <v>34</v>
@@ -7792,10 +7792,10 @@
         <v>2927.33185597866</v>
       </c>
       <c r="C433" t="n">
-        <v>1587.96542549351</v>
+        <v>1682.20308352424</v>
       </c>
       <c r="D433" t="n">
-        <v>2704.10411756447</v>
+        <v>2719.81039390292</v>
       </c>
       <c r="E433" t="s">
         <v>34</v>

--- a/outcome/appendix/model/index/pre-epidemic.xlsx
+++ b/outcome/appendix/model/index/pre-epidemic.xlsx
@@ -1030,10 +1030,10 @@
         <v>294.738465100833</v>
       </c>
       <c r="C35" t="n">
-        <v>276.110396133468</v>
+        <v>297.343070570294</v>
       </c>
       <c r="D35" t="n">
-        <v>291.716404778955</v>
+        <v>295.174162054129</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1047,10 +1047,10 @@
         <v>0.778995378983527</v>
       </c>
       <c r="C36" t="n">
-        <v>0.686245240258349</v>
+        <v>0.667438192134397</v>
       </c>
       <c r="D36" t="n">
-        <v>0.777921761233371</v>
+        <v>0.775894190319042</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -1064,10 +1064,10 @@
         <v>195.060178683329</v>
       </c>
       <c r="C37" t="n">
-        <v>196.20351014879</v>
+        <v>196.680896077493</v>
       </c>
       <c r="D37" t="n">
-        <v>195.250733927573</v>
+        <v>195.330298249023</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -1642,10 +1642,10 @@
         <v>23734.8970348508</v>
       </c>
       <c r="C71" t="n">
-        <v>9875.78595500332</v>
+        <v>8429.17344004684</v>
       </c>
       <c r="D71" t="n">
-        <v>22038.8211818142</v>
+        <v>21938.4656526584</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -1659,10 +1659,10 @@
         <v>0.000577714079741146</v>
       </c>
       <c r="C72" t="n">
-        <v>0.00301456126900357</v>
+        <v>0.000024691853564453</v>
       </c>
       <c r="D72" t="n">
-        <v>0.000701346567964727</v>
+        <v>0.000834757064338052</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -1676,10 +1676,10 @@
         <v>7712.6386734476</v>
       </c>
       <c r="C73" t="n">
-        <v>7412.28143113369</v>
+        <v>7055.07995066041</v>
       </c>
       <c r="D73" t="n">
-        <v>7662.57913306195</v>
+        <v>7603.04555298307</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -1948,10 +1948,10 @@
         <v>4790.92800057429</v>
       </c>
       <c r="C89" t="n">
-        <v>29404.5259576534</v>
+        <v>33489.7471027748</v>
       </c>
       <c r="D89" t="n">
-        <v>12776.2220702349</v>
+        <v>14354.6050482139</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -1965,10 +1965,10 @@
         <v>0.81620119645318</v>
       </c>
       <c r="C90" t="n">
-        <v>0.242248202765315</v>
+        <v>0.206485708457834</v>
       </c>
       <c r="D90" t="n">
-        <v>0.260812529136833</v>
+        <v>0.195587784920107</v>
       </c>
       <c r="E90" t="s">
         <v>15</v>
@@ -1982,10 +1982,10 @@
         <v>2615.78025230713</v>
       </c>
       <c r="C91" t="n">
-        <v>26024.0578686214</v>
+        <v>29778.5702226769</v>
       </c>
       <c r="D91" t="n">
-        <v>6517.15985502617</v>
+        <v>7142.91191403543</v>
       </c>
       <c r="E91" t="s">
         <v>15</v>
@@ -2254,10 +2254,10 @@
         <v>54576.1025975351</v>
       </c>
       <c r="C107" t="n">
-        <v>74036.2476277874</v>
+        <v>73277.9444147507</v>
       </c>
       <c r="D107" t="n">
-        <v>58272.521878507</v>
+        <v>58112.5517298611</v>
       </c>
       <c r="E107" t="s">
         <v>16</v>
@@ -2271,10 +2271,10 @@
         <v>0.777755586833564</v>
       </c>
       <c r="C108" t="n">
-        <v>0.765369487716554</v>
+        <v>0.766179426470067</v>
       </c>
       <c r="D108" t="n">
-        <v>0.752344646418036</v>
+        <v>0.753579842898897</v>
       </c>
       <c r="E108" t="s">
         <v>16</v>
@@ -2288,10 +2288,10 @@
         <v>39417.0790886871</v>
       </c>
       <c r="C109" t="n">
-        <v>58625.6585991011</v>
+        <v>57580.0043669713</v>
       </c>
       <c r="D109" t="n">
-        <v>42618.5090070894</v>
+        <v>42444.2333017344</v>
       </c>
       <c r="E109" t="s">
         <v>16</v>
@@ -2560,10 +2560,10 @@
         <v>17041.6035685369</v>
       </c>
       <c r="C125" t="n">
-        <v>72178.1135962911</v>
+        <v>70822.5161705012</v>
       </c>
       <c r="D125" t="n">
-        <v>33321.0677681427</v>
+        <v>32832.6820349702</v>
       </c>
       <c r="E125" t="s">
         <v>17</v>
@@ -2577,10 +2577,10 @@
         <v>0.587775894760443</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0392549367957546</v>
+        <v>0.0481653902690507</v>
       </c>
       <c r="D126" t="n">
-        <v>0.498913528459567</v>
+        <v>0.502985554516917</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -2594,10 +2594,10 @@
         <v>11481.41039375</v>
       </c>
       <c r="C127" t="n">
-        <v>69606.4327579907</v>
+        <v>68250.4856172687</v>
       </c>
       <c r="D127" t="n">
-        <v>21168.9141211234</v>
+        <v>20942.9229310031</v>
       </c>
       <c r="E127" t="s">
         <v>17</v>
@@ -3170,10 +3170,10 @@
         <v>2600.80348269103</v>
       </c>
       <c r="C161" t="n">
-        <v>1436.45818563655</v>
+        <v>1657.00052607364</v>
       </c>
       <c r="D161" t="n">
-        <v>2445.5505820766</v>
+        <v>2468.68873835542</v>
       </c>
       <c r="E161" t="s">
         <v>19</v>
@@ -3187,10 +3187,10 @@
         <v>0.292364433472787</v>
       </c>
       <c r="C162" t="n">
-        <v>0.624590364520446</v>
+        <v>0.418377504855656</v>
       </c>
       <c r="D162" t="n">
-        <v>0.297287450364919</v>
+        <v>0.288349110147478</v>
       </c>
       <c r="E162" t="s">
         <v>19</v>
@@ -3204,10 +3204,10 @@
         <v>594.824109276843</v>
       </c>
       <c r="C163" t="n">
-        <v>791.444741775096</v>
+        <v>987.525606464906</v>
       </c>
       <c r="D163" t="n">
-        <v>627.594214693219</v>
+        <v>660.274358808187</v>
       </c>
       <c r="E163" t="s">
         <v>19</v>
@@ -3782,10 +3782,10 @@
         <v>252.574724835046</v>
       </c>
       <c r="C197" t="n">
-        <v>168.310475604588</v>
+        <v>193.113040964533</v>
       </c>
       <c r="D197" t="n">
-        <v>240.588990578586</v>
+        <v>243.674169304718</v>
       </c>
       <c r="E197" t="s">
         <v>21</v>
@@ -3799,10 +3799,10 @@
         <v>0.526678982403249</v>
       </c>
       <c r="C198" t="n">
-        <v>0.525624374335176</v>
+        <v>0.53999848615894</v>
       </c>
       <c r="D198" t="n">
-        <v>0.523812093252693</v>
+        <v>0.51808759865914</v>
       </c>
       <c r="E198" t="s">
         <v>21</v>
@@ -3816,10 +3816,10 @@
         <v>147.684504774939</v>
       </c>
       <c r="C199" t="n">
-        <v>109.639583687668</v>
+        <v>144.133218776868</v>
       </c>
       <c r="D199" t="n">
-        <v>141.343684593727</v>
+        <v>147.09262377526</v>
       </c>
       <c r="E199" t="s">
         <v>21</v>
@@ -4088,10 +4088,10 @@
         <v>596.760900891002</v>
       </c>
       <c r="C215" t="n">
-        <v>2985.42593294928</v>
+        <v>2692.3983568963</v>
       </c>
       <c r="D215" t="n">
-        <v>1335.0022387801</v>
+        <v>1226.7590619446</v>
       </c>
       <c r="E215" t="s">
         <v>22</v>
@@ -4105,10 +4105,10 @@
         <v>0.689487445811981</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0139139808628561</v>
+        <v>0.0103845361412744</v>
       </c>
       <c r="D216" t="n">
-        <v>0.21451517505343</v>
+        <v>0.253097856000157</v>
       </c>
       <c r="E216" t="s">
         <v>22</v>
@@ -4122,10 +4122,10 @@
         <v>342.632638794349</v>
       </c>
       <c r="C217" t="n">
-        <v>2642.43768672048</v>
+        <v>2380.37107842754</v>
       </c>
       <c r="D217" t="n">
-        <v>725.933480115371</v>
+        <v>682.255712066547</v>
       </c>
       <c r="E217" t="s">
         <v>22</v>
@@ -4394,10 +4394,10 @@
         <v>70.2939827794162</v>
       </c>
       <c r="C233" t="n">
-        <v>60.7187254074313</v>
+        <v>60.2756536403983</v>
       </c>
       <c r="D233" t="n">
-        <v>68.7907257436972</v>
+        <v>68.725752689878</v>
       </c>
       <c r="E233" t="s">
         <v>23</v>
@@ -4411,10 +4411,10 @@
         <v>0.534382106597109</v>
       </c>
       <c r="C234" t="n">
-        <v>0.39311193395049</v>
+        <v>0.411268125517915</v>
       </c>
       <c r="D234" t="n">
-        <v>0.574733737478395</v>
+        <v>0.575337031916904</v>
       </c>
       <c r="E234" t="s">
         <v>23</v>
@@ -4428,10 +4428,10 @@
         <v>53.4492730571038</v>
       </c>
       <c r="C235" t="n">
-        <v>52.6625757289202</v>
+        <v>52.527235551093</v>
       </c>
       <c r="D235" t="n">
-        <v>53.3181568357398</v>
+        <v>53.2956001394353</v>
       </c>
       <c r="E235" t="s">
         <v>23</v>
@@ -4700,10 +4700,10 @@
         <v>42.7856493697859</v>
       </c>
       <c r="C251" t="n">
-        <v>28.2957025797771</v>
+        <v>31.025940391426</v>
       </c>
       <c r="D251" t="n">
-        <v>40.7302216714946</v>
+        <v>41.0602564067811</v>
       </c>
       <c r="E251" t="s">
         <v>24</v>
@@ -4717,10 +4717,10 @@
         <v>0.701797032349928</v>
       </c>
       <c r="C252" t="n">
-        <v>0.759460290181799</v>
+        <v>0.732486055170222</v>
       </c>
       <c r="D252" t="n">
-        <v>0.737131505985364</v>
+        <v>0.73512391445308</v>
       </c>
       <c r="E252" t="s">
         <v>24</v>
@@ -4734,10 +4734,10 @@
         <v>29.0613129428882</v>
       </c>
       <c r="C253" t="n">
-        <v>23.3076942064563</v>
+        <v>25.2531577955874</v>
       </c>
       <c r="D253" t="n">
-        <v>28.1023764868162</v>
+        <v>28.4266204183381</v>
       </c>
       <c r="E253" t="s">
         <v>24</v>
@@ -5006,10 +5006,10 @@
         <v>536.230470163635</v>
       </c>
       <c r="C269" t="n">
-        <v>660.8373291381</v>
+        <v>675.494867568382</v>
       </c>
       <c r="D269" t="n">
-        <v>558.930759164607</v>
+        <v>561.84352830226</v>
       </c>
       <c r="E269" t="s">
         <v>25</v>
@@ -5023,10 +5023,10 @@
         <v>0.893490885890576</v>
       </c>
       <c r="C270" t="n">
-        <v>0.76174633468026</v>
+        <v>0.763715749976228</v>
       </c>
       <c r="D270" t="n">
-        <v>0.914927658832495</v>
+        <v>0.914412025342157</v>
       </c>
       <c r="E270" t="s">
         <v>25</v>
@@ -5040,10 +5040,10 @@
         <v>343.623623431781</v>
       </c>
       <c r="C271" t="n">
-        <v>539.23337330011</v>
+        <v>551.397883186769</v>
       </c>
       <c r="D271" t="n">
-        <v>376.225248409836</v>
+        <v>378.252666724279</v>
       </c>
       <c r="E271" t="s">
         <v>25</v>
@@ -5312,10 +5312,10 @@
         <v>679.664405300572</v>
       </c>
       <c r="C287" t="n">
-        <v>2723.88908518566</v>
+        <v>2714.23736230116</v>
       </c>
       <c r="D287" t="n">
-        <v>1273.40032115831</v>
+        <v>1269.96082472876</v>
       </c>
       <c r="E287" t="s">
         <v>26</v>
@@ -5329,10 +5329,10 @@
         <v>0.829515710037644</v>
       </c>
       <c r="C288" t="n">
-        <v>0.178743125769698</v>
+        <v>0.179935594149687</v>
       </c>
       <c r="D288" t="n">
-        <v>0.67323462746944</v>
+        <v>0.674073680426958</v>
       </c>
       <c r="E288" t="s">
         <v>26</v>
@@ -5346,10 +5346,10 @@
         <v>445.526608135485</v>
       </c>
       <c r="C289" t="n">
-        <v>2434.02866506573</v>
+        <v>2424.62833873839</v>
       </c>
       <c r="D289" t="n">
-        <v>776.943617623858</v>
+        <v>775.376896569302</v>
       </c>
       <c r="E289" t="s">
         <v>26</v>
@@ -5924,10 +5924,10 @@
         <v>1145.48267134023</v>
       </c>
       <c r="C323" t="n">
-        <v>2979.39858048506</v>
+        <v>3034.84256097696</v>
       </c>
       <c r="D323" t="n">
-        <v>1604.02975102813</v>
+        <v>1621.2609352816</v>
       </c>
       <c r="E323" t="s">
         <v>28</v>
@@ -5941,10 +5941,10 @@
         <v>0.878106884396577</v>
       </c>
       <c r="C324" t="n">
-        <v>0.598335187523123</v>
+        <v>0.607940105454839</v>
       </c>
       <c r="D324" t="n">
-        <v>0.849264264388641</v>
+        <v>0.846425601194934</v>
       </c>
       <c r="E324" t="s">
         <v>28</v>
@@ -5958,10 +5958,10 @@
         <v>768.854477915248</v>
       </c>
       <c r="C325" t="n">
-        <v>2819.57848686119</v>
+        <v>2867.61354694515</v>
       </c>
       <c r="D325" t="n">
-        <v>1110.64181273957</v>
+        <v>1118.6476560869</v>
       </c>
       <c r="E325" t="s">
         <v>28</v>
@@ -6230,10 +6230,10 @@
         <v>2042.98747019643</v>
       </c>
       <c r="C341" t="n">
-        <v>3774.44698925516</v>
+        <v>3895.38030678199</v>
       </c>
       <c r="D341" t="n">
-        <v>2419.20920590439</v>
+        <v>2450.95140545337</v>
       </c>
       <c r="E341" t="s">
         <v>29</v>
@@ -6247,10 +6247,10 @@
         <v>0.889204779733321</v>
       </c>
       <c r="C342" t="n">
-        <v>0.797844749811488</v>
+        <v>0.790164955896029</v>
       </c>
       <c r="D342" t="n">
-        <v>0.920363837413942</v>
+        <v>0.918833643960522</v>
       </c>
       <c r="E342" t="s">
         <v>29</v>
@@ -6264,10 +6264,10 @@
         <v>1402.4605926983</v>
       </c>
       <c r="C343" t="n">
-        <v>3285.18566025232</v>
+        <v>3410.29451452896</v>
       </c>
       <c r="D343" t="n">
-        <v>1716.2481039573</v>
+        <v>1737.09957967008</v>
       </c>
       <c r="E343" t="s">
         <v>29</v>
@@ -6534,10 +6534,10 @@
         <v>82.7458054834069</v>
       </c>
       <c r="C359" t="n">
-        <v>3624.1019846279</v>
+        <v>3662.64890830167</v>
       </c>
       <c r="D359" t="n">
-        <v>1481.46040202505</v>
+        <v>1497.17686369541</v>
       </c>
       <c r="E359" t="s">
         <v>30</v>
@@ -6551,10 +6551,10 @@
         <v>0.917077059404689</v>
       </c>
       <c r="C360" t="n">
-        <v>0.0915747821757317</v>
+        <v>0.0886301313451063</v>
       </c>
       <c r="D360" t="n">
-        <v>0.349818982665305</v>
+        <v>0.352193178437469</v>
       </c>
       <c r="E360" t="s">
         <v>30</v>
@@ -6568,10 +6568,10 @@
         <v>54.228142736518</v>
       </c>
       <c r="C361" t="n">
-        <v>3269.22967267906</v>
+        <v>3301.4934409397</v>
       </c>
       <c r="D361" t="n">
-        <v>590.061731060275</v>
+        <v>595.439025770381</v>
       </c>
       <c r="E361" t="s">
         <v>30</v>
@@ -6840,10 +6840,10 @@
         <v>1197.67110359123</v>
       </c>
       <c r="C377" t="n">
-        <v>3187.86211443217</v>
+        <v>3295.06615499876</v>
       </c>
       <c r="D377" t="n">
-        <v>1699.73258791489</v>
+        <v>1733.47153268162</v>
       </c>
       <c r="E377" t="s">
         <v>31</v>
@@ -6857,10 +6857,10 @@
         <v>0.790337112224549</v>
       </c>
       <c r="C378" t="n">
-        <v>0.852262253755753</v>
+        <v>0.841785391532014</v>
       </c>
       <c r="D378" t="n">
-        <v>0.724512116833013</v>
+        <v>0.717752849475948</v>
       </c>
       <c r="E378" t="s">
         <v>31</v>
@@ -6874,10 +6874,10 @@
         <v>860.204780291174</v>
       </c>
       <c r="C379" t="n">
-        <v>2790.68111709004</v>
+        <v>2895.30601628083</v>
       </c>
       <c r="D379" t="n">
-        <v>1181.95083642432</v>
+        <v>1199.38831962278</v>
       </c>
       <c r="E379" t="s">
         <v>31</v>
@@ -7452,10 +7452,10 @@
         <v>6632.00252418798</v>
       </c>
       <c r="C413" t="n">
-        <v>3640.51224684052</v>
+        <v>3498.03804987888</v>
       </c>
       <c r="D413" t="n">
-        <v>6233.92087458573</v>
+        <v>6220.31024953176</v>
       </c>
       <c r="E413" t="s">
         <v>33</v>
@@ -7469,10 +7469,10 @@
         <v>0.777001997752169</v>
       </c>
       <c r="C414" t="n">
-        <v>0.843993815193456</v>
+        <v>0.884175347239465</v>
       </c>
       <c r="D414" t="n">
-        <v>0.779455597540005</v>
+        <v>0.78081725446467</v>
       </c>
       <c r="E414" t="s">
         <v>33</v>
@@ -7486,10 +7486,10 @@
         <v>5113.19620771573</v>
       </c>
       <c r="C415" t="n">
-        <v>2791.97740581897</v>
+        <v>2739.21113307125</v>
       </c>
       <c r="D415" t="n">
-        <v>4726.3264073996</v>
+        <v>4717.53202860832</v>
       </c>
       <c r="E415" t="s">
         <v>33</v>
@@ -7758,10 +7758,10 @@
         <v>5186.65983762203</v>
       </c>
       <c r="C431" t="n">
-        <v>2512.77263086478</v>
+        <v>2469.76463593537</v>
       </c>
       <c r="D431" t="n">
-        <v>4844.6057226987</v>
+        <v>4840.91827915813</v>
       </c>
       <c r="E431" t="s">
         <v>34</v>
@@ -7775,10 +7775,10 @@
         <v>0.535809278569916</v>
       </c>
       <c r="C432" t="n">
-        <v>0.365949160217687</v>
+        <v>0.376051472293671</v>
       </c>
       <c r="D432" t="n">
-        <v>0.533973863416745</v>
+        <v>0.533890117191742</v>
       </c>
       <c r="E432" t="s">
         <v>34</v>
@@ -7792,10 +7792,10 @@
         <v>2927.33185597866</v>
       </c>
       <c r="C433" t="n">
-        <v>1682.20308352424</v>
+        <v>1587.96542549351</v>
       </c>
       <c r="D433" t="n">
-        <v>2719.81039390292</v>
+        <v>2704.10411756447</v>
       </c>
       <c r="E433" t="s">
         <v>34</v>

--- a/outcome/appendix/model/index/pre-epidemic.xlsx
+++ b/outcome/appendix/model/index/pre-epidemic.xlsx
@@ -35,10 +35,10 @@
     <t xml:space="preserve">HAV</t>
   </si>
   <si>
-    <t xml:space="preserve">ETS</t>
+    <t xml:space="preserve">Prophet</t>
   </si>
   <si>
-    <t xml:space="preserve">ARIMA</t>
+    <t xml:space="preserve">ETS</t>
   </si>
   <si>
     <t xml:space="preserve">SARIMA</t>
@@ -521,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>227.614020369867</v>
+        <v>362.40179541273</v>
       </c>
       <c r="C5" t="n">
-        <v>261.507478528327</v>
+        <v>276.074829623775</v>
       </c>
       <c r="D5" t="n">
-        <v>233.60467770392</v>
+        <v>349.49788224052</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.950988856811448</v>
+        <v>0.875269838963845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.185527085829092</v>
+        <v>0.178538048259443</v>
       </c>
       <c r="D6" t="n">
-        <v>0.947719910383543</v>
+        <v>0.880107813796122</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -555,13 +555,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>172.399261290027</v>
+        <v>274.251843736683</v>
       </c>
       <c r="C7" t="n">
-        <v>189.728143528887</v>
+        <v>226.464923341188</v>
       </c>
       <c r="D7" t="n">
-        <v>175.287408329837</v>
+        <v>266.2873570041</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -572,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>330.740267658121</v>
+        <v>227.614020369867</v>
       </c>
       <c r="C8" t="n">
-        <v>350.525260620876</v>
+        <v>261.507478528327</v>
       </c>
       <c r="D8" t="n">
-        <v>334.11913583485</v>
+        <v>233.60467770392</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -589,11 +589,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.899660567561524</v>
-      </c>
-      <c r="C9"/>
+        <v>0.950988856811448</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.185527085829092</v>
+      </c>
       <c r="D9" t="n">
-        <v>0.898994603250283</v>
+        <v>0.947719910383543</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -604,13 +606,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>228.771483314285</v>
+        <v>172.399261290027</v>
       </c>
       <c r="C10" t="n">
-        <v>253.875</v>
+        <v>189.728143528887</v>
       </c>
       <c r="D10" t="n">
-        <v>232.955402761904</v>
+        <v>175.287408329837</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -672,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>183.681371091391</v>
+        <v>183.322672162049</v>
       </c>
       <c r="C14" t="n">
-        <v>342.222951205529</v>
+        <v>345.845490271103</v>
       </c>
       <c r="D14" t="n">
-        <v>221.129890138181</v>
+        <v>221.909692000111</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -689,13 +691,13 @@
         <v>10</v>
       </c>
       <c r="B15" t="n">
-        <v>0.933710985719931</v>
+        <v>0.933969006388717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0138806949161668</v>
+        <v>0.0119960387852124</v>
       </c>
       <c r="D15" t="n">
-        <v>0.910872194121778</v>
+        <v>0.910495989080009</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -706,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>135.080118551729</v>
+        <v>134.90030469004</v>
       </c>
       <c r="C16" t="n">
-        <v>242.71592133109</v>
+        <v>245.700447802184</v>
       </c>
       <c r="D16" t="n">
-        <v>154.650264511613</v>
+        <v>155.045785255884</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -825,13 +827,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>198.9940946688</v>
+        <v>201.61846901311</v>
       </c>
       <c r="C23" t="n">
-        <v>282.498726102838</v>
+        <v>278.454423781332</v>
       </c>
       <c r="D23" t="n">
-        <v>215.173874968982</v>
+        <v>216.328030761675</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -842,13 +844,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>0.883353448499188</v>
+        <v>0.878174523622819</v>
       </c>
       <c r="C24" t="n">
-        <v>0.669352892355666</v>
+        <v>0.682456143964822</v>
       </c>
       <c r="D24" t="n">
-        <v>0.860214767601375</v>
+        <v>0.852366758735556</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -859,13 +861,13 @@
         <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>142.298785500969</v>
+        <v>152.45797899717</v>
       </c>
       <c r="C25" t="n">
-        <v>213.994499146089</v>
+        <v>218.65456467434</v>
       </c>
       <c r="D25" t="n">
-        <v>154.248071108489</v>
+        <v>163.490743276699</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -876,13 +878,13 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>403.585971806149</v>
+        <v>198.9940946688</v>
       </c>
       <c r="C26" t="n">
-        <v>446.333815658191</v>
+        <v>282.498726102838</v>
       </c>
       <c r="D26" t="n">
-        <v>411.019476057921</v>
+        <v>215.173874968982</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -893,11 +895,13 @@
         <v>8</v>
       </c>
       <c r="B27" t="n">
-        <v>0.57144599340093</v>
-      </c>
-      <c r="C27"/>
+        <v>0.883353448499188</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.669352892355666</v>
+      </c>
       <c r="D27" t="n">
-        <v>0.517306961039235</v>
+        <v>0.860214767601375</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -908,13 +912,13 @@
         <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>295.223691658989</v>
+        <v>142.298785500969</v>
       </c>
       <c r="C28" t="n">
-        <v>337.458333333333</v>
+        <v>213.994499146089</v>
       </c>
       <c r="D28" t="n">
-        <v>302.262798604713</v>
+        <v>154.248071108489</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -976,13 +980,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>145.561959059684</v>
+        <v>145.551023653417</v>
       </c>
       <c r="C32" t="n">
-        <v>200.702310950938</v>
+        <v>217.38166596607</v>
       </c>
       <c r="D32" t="n">
-        <v>157.034272625648</v>
+        <v>161.012557888391</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -993,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="n">
-        <v>0.929867678161748</v>
+        <v>0.929878945065627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.739758710568433</v>
+        <v>0.698052827119861</v>
       </c>
       <c r="D33" t="n">
-        <v>0.912790439871736</v>
+        <v>0.908424470022696</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -1010,13 +1014,13 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>103.398445917344</v>
+        <v>103.50823195683</v>
       </c>
       <c r="C34" t="n">
-        <v>145.489677327459</v>
+        <v>159.641993400723</v>
       </c>
       <c r="D34" t="n">
-        <v>111.05139708282</v>
+        <v>113.714370401174</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -1030,10 +1034,10 @@
         <v>294.738465100833</v>
       </c>
       <c r="C35" t="n">
-        <v>297.343070570294</v>
+        <v>296.43320610885</v>
       </c>
       <c r="D35" t="n">
-        <v>295.174162054129</v>
+        <v>295.021598004266</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1047,10 +1051,10 @@
         <v>0.778995378983527</v>
       </c>
       <c r="C36" t="n">
-        <v>0.667438192134397</v>
+        <v>0.655683443404482</v>
       </c>
       <c r="D36" t="n">
-        <v>0.775894190319042</v>
+        <v>0.77503605881244</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -1064,10 +1068,10 @@
         <v>195.060178683329</v>
       </c>
       <c r="C37" t="n">
-        <v>196.680896077493</v>
+        <v>200.378739036889</v>
       </c>
       <c r="D37" t="n">
-        <v>195.330298249023</v>
+        <v>195.946605408923</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -1129,13 +1133,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="n">
-        <v>95.590245724215</v>
+        <v>159.382935335958</v>
       </c>
       <c r="C41" t="n">
-        <v>214.893614840293</v>
+        <v>182.795424460651</v>
       </c>
       <c r="D41" t="n">
-        <v>123.738124741466</v>
+        <v>163.51797433579</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
@@ -1146,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>0.939832959666492</v>
+        <v>0.831619099447413</v>
       </c>
       <c r="C42" t="n">
-        <v>0.694218528659375</v>
+        <v>0.733867553498057</v>
       </c>
       <c r="D42" t="n">
-        <v>0.898409371746569</v>
+        <v>0.816146531636972</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -1163,13 +1167,13 @@
         <v>7</v>
       </c>
       <c r="B43" t="n">
-        <v>73.9589932003901</v>
+        <v>133.624517132892</v>
       </c>
       <c r="C43" t="n">
-        <v>176.718854200998</v>
+        <v>144.667466256875</v>
       </c>
       <c r="D43" t="n">
-        <v>91.0856367004914</v>
+        <v>135.465008653556</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -1180,13 +1184,13 @@
         <v>8</v>
       </c>
       <c r="B44" t="n">
-        <v>121.322466306483</v>
+        <v>95.590245724215</v>
       </c>
       <c r="C44" t="n">
-        <v>158.102510536679</v>
+        <v>214.893614840293</v>
       </c>
       <c r="D44" t="n">
-        <v>128.187433075841</v>
+        <v>123.738124741466</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -1197,13 +1201,13 @@
         <v>8</v>
       </c>
       <c r="B45" t="n">
-        <v>0.90396876752863</v>
+        <v>0.939832959666492</v>
       </c>
       <c r="C45" t="n">
-        <v>0.64379990546462</v>
+        <v>0.694218528659375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.885908504451944</v>
+        <v>0.898409371746569</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -1214,13 +1218,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="n">
-        <v>96.2324303019267</v>
+        <v>73.9589932003901</v>
       </c>
       <c r="C46" t="n">
-        <v>128.480875292132</v>
+        <v>176.718854200998</v>
       </c>
       <c r="D46" t="n">
-        <v>101.607171133628</v>
+        <v>91.0856367004914</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
@@ -1282,13 +1286,13 @@
         <v>10</v>
       </c>
       <c r="B50" t="n">
-        <v>89.5241933825374</v>
+        <v>89.4758019821308</v>
       </c>
       <c r="C50" t="n">
-        <v>153.020938211652</v>
+        <v>153.153728287147</v>
       </c>
       <c r="D50" t="n">
-        <v>103.993900987901</v>
+        <v>103.995367571487</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
@@ -1299,13 +1303,13 @@
         <v>10</v>
       </c>
       <c r="B51" t="n">
-        <v>0.94039964533658</v>
+        <v>0.940466752410096</v>
       </c>
       <c r="C51" t="n">
-        <v>0.708694565227698</v>
+        <v>0.708578588511839</v>
       </c>
       <c r="D51" t="n">
-        <v>0.915575970567879</v>
+        <v>0.915583656731159</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -1316,13 +1320,13 @@
         <v>10</v>
       </c>
       <c r="B52" t="n">
-        <v>69.3159256534015</v>
+        <v>69.2990372895405</v>
       </c>
       <c r="C52" t="n">
-        <v>131.263526503033</v>
+        <v>131.361094807659</v>
       </c>
       <c r="D52" t="n">
-        <v>80.57912580788</v>
+        <v>80.5830477473802</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -1435,13 +1439,13 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>18371.1856996093</v>
+        <v>19868.5058596964</v>
       </c>
       <c r="C59" t="n">
-        <v>2130.55994845636</v>
+        <v>7172.56635328978</v>
       </c>
       <c r="D59" t="n">
-        <v>16793.0620879657</v>
+        <v>18372.2314629819</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -1452,13 +1456,13 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>0.24477582059565</v>
+        <v>0.113318594182181</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0761094420399892</v>
+        <v>0.00727677115626238</v>
       </c>
       <c r="D60" t="n">
-        <v>0.243517941868549</v>
+        <v>0.0948980087053555</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -1469,13 +1473,13 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>4434.39558636725</v>
+        <v>5505.17815437214</v>
       </c>
       <c r="C61" t="n">
-        <v>1784.39868760039</v>
+        <v>5119.73767877877</v>
       </c>
       <c r="D61" t="n">
-        <v>3992.72943657277</v>
+        <v>5440.93807510658</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -1486,13 +1490,13 @@
         <v>8</v>
       </c>
       <c r="B62" t="n">
-        <v>20759.3251109914</v>
+        <v>18371.1856996093</v>
       </c>
       <c r="C62" t="n">
-        <v>1657.33792348233</v>
+        <v>2130.55994845636</v>
       </c>
       <c r="D62" t="n">
-        <v>18962.659203075</v>
+        <v>16793.0620879657</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -1503,13 +1507,13 @@
         <v>8</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0319529885622908</v>
+        <v>0.24477582059565</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0730707706520285</v>
+        <v>0.0761094420399892</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0319474729321385</v>
+        <v>0.243517941868549</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -1520,13 +1524,13 @@
         <v>8</v>
       </c>
       <c r="B64" t="n">
-        <v>3953.81269349696</v>
+        <v>4434.39558636725</v>
       </c>
       <c r="C64" t="n">
-        <v>1472.36178465043</v>
+        <v>1784.39868760039</v>
       </c>
       <c r="D64" t="n">
-        <v>3540.23754202254</v>
+        <v>3992.72943657277</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
@@ -1588,13 +1592,13 @@
         <v>10</v>
       </c>
       <c r="B68" t="n">
-        <v>16853.3361206409</v>
+        <v>15673.8883777901</v>
       </c>
       <c r="C68" t="n">
-        <v>955.822469167565</v>
+        <v>956.57144218293</v>
       </c>
       <c r="D68" t="n">
-        <v>15249.863304135</v>
+        <v>14183.4315945267</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -1605,13 +1609,13 @@
         <v>10</v>
       </c>
       <c r="B69" t="n">
-        <v>0.616118583347612</v>
+        <v>0.739001216156621</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0512360855867109</v>
+        <v>0.0498589270619634</v>
       </c>
       <c r="D69" t="n">
-        <v>0.614316475653979</v>
+        <v>0.736865221335803</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
@@ -1622,13 +1626,13 @@
         <v>10</v>
       </c>
       <c r="B70" t="n">
-        <v>3323.9763241601</v>
+        <v>3173.1661481017</v>
       </c>
       <c r="C70" t="n">
-        <v>737.332612150249</v>
+        <v>737.500487081303</v>
       </c>
       <c r="D70" t="n">
-        <v>2853.67746743104</v>
+        <v>2730.31784609799</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -1642,10 +1646,10 @@
         <v>23734.8970348508</v>
       </c>
       <c r="C71" t="n">
-        <v>8429.17344004684</v>
+        <v>8782.42354130076</v>
       </c>
       <c r="D71" t="n">
-        <v>21938.4656526584</v>
+        <v>21961.5484029612</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -1659,10 +1663,10 @@
         <v>0.000577714079741146</v>
       </c>
       <c r="C72" t="n">
-        <v>0.000024691853564453</v>
+        <v>0.0488267283104346</v>
       </c>
       <c r="D72" t="n">
-        <v>0.000834757064338052</v>
+        <v>0.000818769298686823</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -1676,10 +1680,10 @@
         <v>7712.6386734476</v>
       </c>
       <c r="C73" t="n">
-        <v>7055.07995066041</v>
+        <v>6522.05600510871</v>
       </c>
       <c r="D73" t="n">
-        <v>7603.04555298307</v>
+        <v>7514.20822872446</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -1741,13 +1745,13 @@
         <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>1160.2592218435</v>
+        <v>3401.36902757155</v>
       </c>
       <c r="C77" t="n">
-        <v>1822.95968420278</v>
+        <v>5352.76082908713</v>
       </c>
       <c r="D77" t="n">
-        <v>1294.48762834265</v>
+        <v>3796.89796197775</v>
       </c>
       <c r="E77" t="s">
         <v>15</v>
@@ -1758,13 +1762,13 @@
         <v>7</v>
       </c>
       <c r="B78" t="n">
-        <v>0.987234274610832</v>
+        <v>0.889520238952507</v>
       </c>
       <c r="C78" t="n">
-        <v>0.970967687951007</v>
+        <v>0.983545494676722</v>
       </c>
       <c r="D78" t="n">
-        <v>0.984237243103434</v>
+        <v>0.86580823049583</v>
       </c>
       <c r="E78" t="s">
         <v>15</v>
@@ -1775,13 +1779,13 @@
         <v>7</v>
       </c>
       <c r="B79" t="n">
-        <v>817.328712770936</v>
+        <v>2701.72518123954</v>
       </c>
       <c r="C79" t="n">
-        <v>1379.17290653387</v>
+        <v>4792.71173857686</v>
       </c>
       <c r="D79" t="n">
-        <v>910.969411731425</v>
+        <v>3050.22294079576</v>
       </c>
       <c r="E79" t="s">
         <v>15</v>
@@ -1792,13 +1796,13 @@
         <v>8</v>
       </c>
       <c r="B80" t="n">
-        <v>2895.81291275191</v>
+        <v>1160.2592218435</v>
       </c>
       <c r="C80" t="n">
-        <v>3929.02360455203</v>
+        <v>1822.95968420278</v>
       </c>
       <c r="D80" t="n">
-        <v>3092.08367214922</v>
+        <v>1294.48762834265</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
@@ -1809,13 +1813,13 @@
         <v>8</v>
       </c>
       <c r="B81" t="n">
-        <v>0.928282748380205</v>
+        <v>0.987234274610832</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0085414873937099</v>
+        <v>0.970967687951007</v>
       </c>
       <c r="D81" t="n">
-        <v>0.920517222349363</v>
+        <v>0.984237243103434</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
@@ -1826,13 +1830,13 @@
         <v>8</v>
       </c>
       <c r="B82" t="n">
-        <v>2133.16103172488</v>
+        <v>817.328712770936</v>
       </c>
       <c r="C82" t="n">
-        <v>2926.76909963914</v>
+        <v>1379.17290653387</v>
       </c>
       <c r="D82" t="n">
-        <v>2265.42904304392</v>
+        <v>910.969411731425</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -1894,13 +1898,13 @@
         <v>10</v>
       </c>
       <c r="B86" t="n">
-        <v>968.49370654725</v>
+        <v>970.169739961369</v>
       </c>
       <c r="C86" t="n">
-        <v>1727.91267944782</v>
+        <v>1734.23852298008</v>
       </c>
       <c r="D86" t="n">
-        <v>1144.67879544628</v>
+        <v>1147.57572252461</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
@@ -1911,13 +1915,13 @@
         <v>10</v>
       </c>
       <c r="B87" t="n">
-        <v>0.989001889290857</v>
+        <v>0.988963625700536</v>
       </c>
       <c r="C87" t="n">
-        <v>0.984393013770747</v>
+        <v>0.984179273998619</v>
       </c>
       <c r="D87" t="n">
-        <v>0.984495414157152</v>
+        <v>0.984422246296454</v>
       </c>
       <c r="E87" t="s">
         <v>15</v>
@@ -1928,13 +1932,13 @@
         <v>10</v>
       </c>
       <c r="B88" t="n">
-        <v>670.781420737957</v>
+        <v>670.674375532339</v>
       </c>
       <c r="C88" t="n">
-        <v>1222.78494979665</v>
+        <v>1225.79597414279</v>
       </c>
       <c r="D88" t="n">
-        <v>771.145698748629</v>
+        <v>771.605575279693</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
@@ -2047,13 +2051,13 @@
         <v>7</v>
       </c>
       <c r="B95" t="n">
-        <v>54555.4977003506</v>
+        <v>54174.992158846</v>
       </c>
       <c r="C95" t="n">
-        <v>72406.3741147657</v>
+        <v>65872.9476984678</v>
       </c>
       <c r="D95" t="n">
-        <v>57914.0090408648</v>
+        <v>56293.7150363167</v>
       </c>
       <c r="E95" t="s">
         <v>16</v>
@@ -2064,13 +2068,13 @@
         <v>7</v>
       </c>
       <c r="B96" t="n">
-        <v>0.783067408303247</v>
+        <v>0.777749332257781</v>
       </c>
       <c r="C96" t="n">
-        <v>0.70259519299151</v>
+        <v>0.769034408857824</v>
       </c>
       <c r="D96" t="n">
-        <v>0.761344328033005</v>
+        <v>0.767826927833301</v>
       </c>
       <c r="E96" t="s">
         <v>16</v>
@@ -2081,13 +2085,13 @@
         <v>7</v>
       </c>
       <c r="B97" t="n">
-        <v>36121.3157274076</v>
+        <v>38246.9031577212</v>
       </c>
       <c r="C97" t="n">
-        <v>56725.5099152304</v>
+        <v>56064.4922933967</v>
       </c>
       <c r="D97" t="n">
-        <v>39555.3480920448</v>
+        <v>41216.5013470005</v>
       </c>
       <c r="E97" t="s">
         <v>16</v>
@@ -2098,13 +2102,13 @@
         <v>8</v>
       </c>
       <c r="B98" t="n">
-        <v>54241.3824661345</v>
+        <v>54555.4977003506</v>
       </c>
       <c r="C98" t="n">
-        <v>114898.177352716</v>
+        <v>72406.3741147657</v>
       </c>
       <c r="D98" t="n">
-        <v>68205.8514329521</v>
+        <v>57914.0090408648</v>
       </c>
       <c r="E98" t="s">
         <v>16</v>
@@ -2115,13 +2119,13 @@
         <v>8</v>
       </c>
       <c r="B99" t="n">
-        <v>0.780623492547695</v>
+        <v>0.783067408303247</v>
       </c>
       <c r="C99" t="n">
-        <v>0.24787124321024</v>
+        <v>0.70259519299151</v>
       </c>
       <c r="D99" t="n">
-        <v>0.660906467952937</v>
+        <v>0.761344328033005</v>
       </c>
       <c r="E99" t="s">
         <v>16</v>
@@ -2132,13 +2136,13 @@
         <v>8</v>
       </c>
       <c r="B100" t="n">
-        <v>40507.3381783667</v>
+        <v>36121.3157274076</v>
       </c>
       <c r="C100" t="n">
-        <v>94688.9962873211</v>
+        <v>56725.5099152304</v>
       </c>
       <c r="D100" t="n">
-        <v>49537.6145298591</v>
+        <v>39555.3480920448</v>
       </c>
       <c r="E100" t="s">
         <v>16</v>
@@ -2200,13 +2204,13 @@
         <v>10</v>
       </c>
       <c r="B104" t="n">
-        <v>35597.9084745307</v>
+        <v>35687.8899105871</v>
       </c>
       <c r="C104" t="n">
-        <v>53344.2892170942</v>
+        <v>54005.8568677218</v>
       </c>
       <c r="D104" t="n">
-        <v>39423.2582182876</v>
+        <v>39652.9197921453</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -2217,13 +2221,13 @@
         <v>10</v>
       </c>
       <c r="B105" t="n">
-        <v>0.904165604512135</v>
+        <v>0.903809371954787</v>
       </c>
       <c r="C105" t="n">
-        <v>0.842751876862075</v>
+        <v>0.834546684741648</v>
       </c>
       <c r="D105" t="n">
-        <v>0.887241200564119</v>
+        <v>0.885757007722861</v>
       </c>
       <c r="E105" t="s">
         <v>16</v>
@@ -2234,13 +2238,13 @@
         <v>10</v>
       </c>
       <c r="B106" t="n">
-        <v>24840.8442088421</v>
+        <v>24776.7355956625</v>
       </c>
       <c r="C106" t="n">
-        <v>46687.942528702</v>
+        <v>47145.8690115276</v>
       </c>
       <c r="D106" t="n">
-        <v>28813.0439033621</v>
+        <v>28843.8507621834</v>
       </c>
       <c r="E106" t="s">
         <v>16</v>
@@ -2254,10 +2258,10 @@
         <v>54576.1025975351</v>
       </c>
       <c r="C107" t="n">
-        <v>73277.9444147507</v>
+        <v>72179.433324707</v>
       </c>
       <c r="D107" t="n">
-        <v>58112.5517298611</v>
+        <v>57882.9644897921</v>
       </c>
       <c r="E107" t="s">
         <v>16</v>
@@ -2271,10 +2275,10 @@
         <v>0.777755586833564</v>
       </c>
       <c r="C108" t="n">
-        <v>0.766179426470067</v>
+        <v>0.768814932703285</v>
       </c>
       <c r="D108" t="n">
-        <v>0.753579842898897</v>
+        <v>0.755339566003209</v>
       </c>
       <c r="E108" t="s">
         <v>16</v>
@@ -2288,10 +2292,10 @@
         <v>39417.0790886871</v>
       </c>
       <c r="C109" t="n">
-        <v>57580.0043669713</v>
+        <v>57598.0873672512</v>
       </c>
       <c r="D109" t="n">
-        <v>42444.2333017344</v>
+        <v>42447.2471351144</v>
       </c>
       <c r="E109" t="s">
         <v>16</v>
@@ -2353,13 +2357,13 @@
         <v>7</v>
       </c>
       <c r="B113" t="n">
-        <v>15078.4613677368</v>
+        <v>15262.7066164606</v>
       </c>
       <c r="C113" t="n">
-        <v>25014.5365864458</v>
+        <v>26672.3986473161</v>
       </c>
       <c r="D113" t="n">
-        <v>17139.2679089389</v>
+        <v>17683.1742809471</v>
       </c>
       <c r="E113" t="s">
         <v>17</v>
@@ -2370,13 +2374,13 @@
         <v>7</v>
       </c>
       <c r="B114" t="n">
-        <v>0.684964793602167</v>
+        <v>0.661942886290637</v>
       </c>
       <c r="C114" t="n">
-        <v>0.327646933521934</v>
+        <v>0.0423426927217499</v>
       </c>
       <c r="D114" t="n">
-        <v>0.693984044067928</v>
+        <v>0.626787890400631</v>
       </c>
       <c r="E114" t="s">
         <v>17</v>
@@ -2387,13 +2391,13 @@
         <v>7</v>
       </c>
       <c r="B115" t="n">
-        <v>10689.3723650927</v>
+        <v>11246.9196027201</v>
       </c>
       <c r="C115" t="n">
-        <v>14747.9361442899</v>
+        <v>17179.2837877502</v>
       </c>
       <c r="D115" t="n">
-        <v>11365.7996616256</v>
+        <v>12235.6469668918</v>
       </c>
       <c r="E115" t="s">
         <v>17</v>
@@ -2404,13 +2408,13 @@
         <v>8</v>
       </c>
       <c r="B116" t="n">
-        <v>16366.3956952579</v>
+        <v>15078.4613677368</v>
       </c>
       <c r="C116" t="n">
-        <v>15548.6824064343</v>
+        <v>25014.5365864458</v>
       </c>
       <c r="D116" t="n">
-        <v>16232.9708969376</v>
+        <v>17139.2679089389</v>
       </c>
       <c r="E116" t="s">
         <v>17</v>
@@ -2421,13 +2425,13 @@
         <v>8</v>
       </c>
       <c r="B117" t="n">
-        <v>0.62461178793314</v>
+        <v>0.684964793602167</v>
       </c>
       <c r="C117" t="n">
-        <v>0.534028575067127</v>
+        <v>0.327646933521934</v>
       </c>
       <c r="D117" t="n">
-        <v>0.692747484004252</v>
+        <v>0.693984044067928</v>
       </c>
       <c r="E117" t="s">
         <v>17</v>
@@ -2438,13 +2442,13 @@
         <v>8</v>
       </c>
       <c r="B118" t="n">
-        <v>12055.6270411847</v>
+        <v>10689.3723650927</v>
       </c>
       <c r="C118" t="n">
-        <v>13245.4679345882</v>
+        <v>14747.9361442899</v>
       </c>
       <c r="D118" t="n">
-        <v>12253.9338567519</v>
+        <v>11365.7996616256</v>
       </c>
       <c r="E118" t="s">
         <v>17</v>
@@ -2506,13 +2510,13 @@
         <v>10</v>
       </c>
       <c r="B122" t="n">
-        <v>10636.2060223851</v>
+        <v>10628.9867753326</v>
       </c>
       <c r="C122" t="n">
-        <v>22262.3750525444</v>
+        <v>35575.0067694529</v>
       </c>
       <c r="D122" t="n">
-        <v>13515.6024078433</v>
+        <v>17959.3997979407</v>
       </c>
       <c r="E122" t="s">
         <v>17</v>
@@ -2523,13 +2527,13 @@
         <v>10</v>
       </c>
       <c r="B123" t="n">
-        <v>0.837789373656341</v>
+        <v>0.838006668124321</v>
       </c>
       <c r="C123" t="n">
-        <v>0.401749880083771</v>
+        <v>0.456342677494173</v>
       </c>
       <c r="D123" t="n">
-        <v>0.795489591465263</v>
+        <v>0.743349355589228</v>
       </c>
       <c r="E123" t="s">
         <v>17</v>
@@ -2540,13 +2544,13 @@
         <v>10</v>
       </c>
       <c r="B124" t="n">
-        <v>7267.52318350988</v>
+        <v>7285.32153556127</v>
       </c>
       <c r="C124" t="n">
-        <v>16721.318694478</v>
+        <v>32298.4662028488</v>
       </c>
       <c r="D124" t="n">
-        <v>8986.395094595</v>
+        <v>11833.1660205226</v>
       </c>
       <c r="E124" t="s">
         <v>17</v>
@@ -2560,10 +2564,10 @@
         <v>17041.6035685369</v>
       </c>
       <c r="C125" t="n">
-        <v>70822.5161705012</v>
+        <v>73600.8316229269</v>
       </c>
       <c r="D125" t="n">
-        <v>32832.6820349702</v>
+        <v>33835.78893352</v>
       </c>
       <c r="E125" t="s">
         <v>17</v>
@@ -2577,10 +2581,10 @@
         <v>0.587775894760443</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0481653902690507</v>
+        <v>0.0360132356371381</v>
       </c>
       <c r="D126" t="n">
-        <v>0.502985554516917</v>
+        <v>0.495037965519744</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -2594,10 +2598,10 @@
         <v>11481.41039375</v>
       </c>
       <c r="C127" t="n">
-        <v>68250.4856172687</v>
+        <v>70716.2367209131</v>
       </c>
       <c r="D127" t="n">
-        <v>20942.9229310031</v>
+        <v>21353.8814482772</v>
       </c>
       <c r="E127" t="s">
         <v>17</v>
@@ -2659,13 +2663,13 @@
         <v>7</v>
       </c>
       <c r="B131" t="n">
-        <v>234.156751750086</v>
+        <v>422.585479699104</v>
       </c>
       <c r="C131" t="n">
-        <v>934.833132589814</v>
+        <v>1379.24908740834</v>
       </c>
       <c r="D131" t="n">
-        <v>437.428071751696</v>
+        <v>682.546760715502</v>
       </c>
       <c r="E131" t="s">
         <v>18</v>
@@ -2676,13 +2680,13 @@
         <v>7</v>
       </c>
       <c r="B132" t="n">
-        <v>0.979688720837258</v>
+        <v>0.933534197583949</v>
       </c>
       <c r="C132" t="n">
-        <v>0.621118520304213</v>
+        <v>0.505554194775913</v>
       </c>
       <c r="D132" t="n">
-        <v>0.927383036213318</v>
+        <v>0.828584861194452</v>
       </c>
       <c r="E132" t="s">
         <v>18</v>
@@ -2693,13 +2697,13 @@
         <v>7</v>
       </c>
       <c r="B133" t="n">
-        <v>182.261210060265</v>
+        <v>319.196901677585</v>
       </c>
       <c r="C133" t="n">
-        <v>839.952822652164</v>
+        <v>1100.32567683476</v>
       </c>
       <c r="D133" t="n">
-        <v>291.876478825582</v>
+        <v>449.385030870449</v>
       </c>
       <c r="E133" t="s">
         <v>18</v>
@@ -2710,13 +2714,13 @@
         <v>8</v>
       </c>
       <c r="B134" t="n">
-        <v>438.992579114451</v>
+        <v>234.156751750086</v>
       </c>
       <c r="C134" t="n">
-        <v>876.467126591522</v>
+        <v>934.833132589814</v>
       </c>
       <c r="D134" t="n">
-        <v>537.240952550372</v>
+        <v>437.428071751696</v>
       </c>
       <c r="E134" t="s">
         <v>18</v>
@@ -2727,13 +2731,13 @@
         <v>8</v>
       </c>
       <c r="B135" t="n">
-        <v>0.928475295355726</v>
+        <v>0.979688720837258</v>
       </c>
       <c r="C135" t="n">
-        <v>0.573209307780979</v>
+        <v>0.621118520304213</v>
       </c>
       <c r="D135" t="n">
-        <v>0.885838139778583</v>
+        <v>0.927383036213318</v>
       </c>
       <c r="E135" t="s">
         <v>18</v>
@@ -2744,13 +2748,13 @@
         <v>8</v>
       </c>
       <c r="B136" t="n">
-        <v>353.323869319852</v>
+        <v>182.261210060265</v>
       </c>
       <c r="C136" t="n">
-        <v>708.31778451546</v>
+        <v>839.952822652164</v>
       </c>
       <c r="D136" t="n">
-        <v>412.489521852454</v>
+        <v>291.876478825582</v>
       </c>
       <c r="E136" t="s">
         <v>18</v>
@@ -2812,13 +2816,13 @@
         <v>10</v>
       </c>
       <c r="B140" t="n">
-        <v>218.811072752725</v>
+        <v>219.026027559029</v>
       </c>
       <c r="C140" t="n">
-        <v>777.095861201933</v>
+        <v>778.250864440764</v>
       </c>
       <c r="D140" t="n">
-        <v>385.965203922362</v>
+        <v>386.487730340374</v>
       </c>
       <c r="E140" t="s">
         <v>18</v>
@@ -2829,13 +2833,13 @@
         <v>10</v>
       </c>
       <c r="B141" t="n">
-        <v>0.982001612893215</v>
+        <v>0.981966400168988</v>
       </c>
       <c r="C141" t="n">
-        <v>0.655168132722177</v>
+        <v>0.656270081440971</v>
       </c>
       <c r="D141" t="n">
-        <v>0.939883624956035</v>
+        <v>0.939736574634941</v>
       </c>
       <c r="E141" t="s">
         <v>18</v>
@@ -2846,13 +2850,13 @@
         <v>10</v>
       </c>
       <c r="B142" t="n">
-        <v>164.654090178456</v>
+        <v>165.120516491347</v>
       </c>
       <c r="C142" t="n">
-        <v>678.285333313743</v>
+        <v>679.861534571288</v>
       </c>
       <c r="D142" t="n">
-        <v>258.041588930326</v>
+        <v>258.709792505882</v>
       </c>
       <c r="E142" t="s">
         <v>18</v>
@@ -2965,13 +2969,13 @@
         <v>7</v>
       </c>
       <c r="B149" t="n">
-        <v>2590.88977557856</v>
+        <v>2554.28007366394</v>
       </c>
       <c r="C149" t="n">
-        <v>2245.45944939494</v>
+        <v>1361.29470087161</v>
       </c>
       <c r="D149" t="n">
-        <v>2536.58685654774</v>
+        <v>2397.04181357649</v>
       </c>
       <c r="E149" t="s">
         <v>19</v>
@@ -2982,11 +2986,13 @@
         <v>7</v>
       </c>
       <c r="B150" t="n">
-        <v>0.312163034098027</v>
-      </c>
-      <c r="C150"/>
+        <v>0.142233121381391</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.601434657881037</v>
+      </c>
       <c r="D150" t="n">
-        <v>0.273639379011123</v>
+        <v>0.184210441003001</v>
       </c>
       <c r="E150" t="s">
         <v>19</v>
@@ -2997,13 +3003,13 @@
         <v>7</v>
       </c>
       <c r="B151" t="n">
-        <v>496.958887546101</v>
+        <v>866.534358931321</v>
       </c>
       <c r="C151" t="n">
-        <v>1091.97484315231</v>
+        <v>979.49232422482</v>
       </c>
       <c r="D151" t="n">
-        <v>596.128213480469</v>
+        <v>885.360686480237</v>
       </c>
       <c r="E151" t="s">
         <v>19</v>
@@ -3014,13 +3020,13 @@
         <v>8</v>
       </c>
       <c r="B152" t="n">
-        <v>2027.0000559944</v>
+        <v>2590.88977557856</v>
       </c>
       <c r="C152" t="n">
-        <v>2064.23853695504</v>
+        <v>2245.45944939494</v>
       </c>
       <c r="D152" t="n">
-        <v>2033.25383201642</v>
+        <v>2536.58685654774</v>
       </c>
       <c r="E152" t="s">
         <v>19</v>
@@ -3031,13 +3037,11 @@
         <v>8</v>
       </c>
       <c r="B153" t="n">
-        <v>0.465887010977329</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.0142052767136483</v>
-      </c>
+        <v>0.312163034098027</v>
+      </c>
+      <c r="C153"/>
       <c r="D153" t="n">
-        <v>0.41960625565401</v>
+        <v>0.273639379011123</v>
       </c>
       <c r="E153" t="s">
         <v>19</v>
@@ -3048,13 +3052,13 @@
         <v>8</v>
       </c>
       <c r="B154" t="n">
-        <v>727.527678409187</v>
+        <v>496.958887546101</v>
       </c>
       <c r="C154" t="n">
-        <v>1096.39776996932</v>
+        <v>1091.97484315231</v>
       </c>
       <c r="D154" t="n">
-        <v>789.006027002541</v>
+        <v>596.128213480469</v>
       </c>
       <c r="E154" t="s">
         <v>19</v>
@@ -3116,13 +3120,13 @@
         <v>10</v>
       </c>
       <c r="B158" t="n">
-        <v>1687.49080688806</v>
+        <v>1699.03538709692</v>
       </c>
       <c r="C158" t="n">
-        <v>1833.29173958021</v>
+        <v>1813.47713992316</v>
       </c>
       <c r="D158" t="n">
-        <v>1714.92232039322</v>
+        <v>1720.40930366521</v>
       </c>
       <c r="E158" t="s">
         <v>19</v>
@@ -3133,13 +3137,13 @@
         <v>10</v>
       </c>
       <c r="B159" t="n">
-        <v>0.661815093609552</v>
+        <v>0.657147890435599</v>
       </c>
       <c r="C159" t="n">
-        <v>0.588966159729625</v>
+        <v>0.59478200645504</v>
       </c>
       <c r="D159" t="n">
-        <v>0.617931739467972</v>
+        <v>0.615217810806581</v>
       </c>
       <c r="E159" t="s">
         <v>19</v>
@@ -3150,13 +3154,13 @@
         <v>10</v>
       </c>
       <c r="B160" t="n">
-        <v>455.125780314028</v>
+        <v>458.322723592057</v>
       </c>
       <c r="C160" t="n">
-        <v>828.953130203169</v>
+        <v>830.723435700376</v>
       </c>
       <c r="D160" t="n">
-        <v>523.09438938478</v>
+        <v>526.031943975388</v>
       </c>
       <c r="E160" t="s">
         <v>19</v>
@@ -3170,10 +3174,10 @@
         <v>2600.80348269103</v>
       </c>
       <c r="C161" t="n">
-        <v>1657.00052607364</v>
+        <v>1436.45818563655</v>
       </c>
       <c r="D161" t="n">
-        <v>2468.68873835542</v>
+        <v>2445.5505820766</v>
       </c>
       <c r="E161" t="s">
         <v>19</v>
@@ -3187,10 +3191,10 @@
         <v>0.292364433472787</v>
       </c>
       <c r="C162" t="n">
-        <v>0.418377504855656</v>
+        <v>0.624590364520446</v>
       </c>
       <c r="D162" t="n">
-        <v>0.288349110147478</v>
+        <v>0.297287450364919</v>
       </c>
       <c r="E162" t="s">
         <v>19</v>
@@ -3204,10 +3208,10 @@
         <v>594.824109276843</v>
       </c>
       <c r="C163" t="n">
-        <v>987.525606464906</v>
+        <v>791.444741775096</v>
       </c>
       <c r="D163" t="n">
-        <v>660.274358808187</v>
+        <v>627.594214693219</v>
       </c>
       <c r="E163" t="s">
         <v>19</v>
@@ -3269,13 +3273,13 @@
         <v>7</v>
       </c>
       <c r="B167" t="n">
-        <v>129.122900535877</v>
+        <v>201.47908674713</v>
       </c>
       <c r="C167" t="n">
-        <v>369.977819757788</v>
+        <v>246.53444456453</v>
       </c>
       <c r="D167" t="n">
-        <v>191.592973221321</v>
+        <v>209.661769022962</v>
       </c>
       <c r="E167" t="s">
         <v>20</v>
@@ -3286,13 +3290,13 @@
         <v>7</v>
       </c>
       <c r="B168" t="n">
-        <v>0.926162552840356</v>
+        <v>0.820066337172121</v>
       </c>
       <c r="C168" t="n">
-        <v>0.775468607251875</v>
+        <v>0.815010973851438</v>
       </c>
       <c r="D168" t="n">
-        <v>0.856116234200055</v>
+        <v>0.802767871729957</v>
       </c>
       <c r="E168" t="s">
         <v>20</v>
@@ -3303,13 +3307,13 @@
         <v>7</v>
       </c>
       <c r="B169" t="n">
-        <v>84.3255955094704</v>
+        <v>136.488352472841</v>
       </c>
       <c r="C169" t="n">
-        <v>253.718727114771</v>
+        <v>216.487210374144</v>
       </c>
       <c r="D169" t="n">
-        <v>112.557784110354</v>
+        <v>149.821495456391</v>
       </c>
       <c r="E169" t="s">
         <v>20</v>
@@ -3320,13 +3324,13 @@
         <v>8</v>
       </c>
       <c r="B170" t="n">
-        <v>282.617548858549</v>
+        <v>129.122900535877</v>
       </c>
       <c r="C170" t="n">
-        <v>412.572755327544</v>
+        <v>369.977819757788</v>
       </c>
       <c r="D170" t="n">
-        <v>308.107035798879</v>
+        <v>191.592973221321</v>
       </c>
       <c r="E170" t="s">
         <v>20</v>
@@ -3337,13 +3341,13 @@
         <v>8</v>
       </c>
       <c r="B171" t="n">
-        <v>0.645735231114877</v>
+        <v>0.926162552840356</v>
       </c>
       <c r="C171" t="n">
-        <v>0.122364145544696</v>
+        <v>0.775468607251875</v>
       </c>
       <c r="D171" t="n">
-        <v>0.567774141275354</v>
+        <v>0.856116234200055</v>
       </c>
       <c r="E171" t="s">
         <v>20</v>
@@ -3354,13 +3358,13 @@
         <v>8</v>
       </c>
       <c r="B172" t="n">
-        <v>222.582026219529</v>
+        <v>84.3255955094704</v>
       </c>
       <c r="C172" t="n">
-        <v>302.806879962451</v>
+        <v>253.718727114771</v>
       </c>
       <c r="D172" t="n">
-        <v>235.952835176683</v>
+        <v>112.557784110354</v>
       </c>
       <c r="E172" t="s">
         <v>20</v>
@@ -3422,13 +3426,13 @@
         <v>10</v>
       </c>
       <c r="B176" t="n">
-        <v>120.656927899659</v>
+        <v>121.103763586046</v>
       </c>
       <c r="C176" t="n">
-        <v>231.678239403292</v>
+        <v>232.789631509455</v>
       </c>
       <c r="D176" t="n">
-        <v>147.20809682452</v>
+        <v>147.825793993827</v>
       </c>
       <c r="E176" t="s">
         <v>20</v>
@@ -3439,13 +3443,13 @@
         <v>10</v>
       </c>
       <c r="B177" t="n">
-        <v>0.938290818024625</v>
+        <v>0.937832094434822</v>
       </c>
       <c r="C177" t="n">
-        <v>0.847115409247357</v>
+        <v>0.84660494722205</v>
       </c>
       <c r="D177" t="n">
-        <v>0.906640973491241</v>
+        <v>0.905944403318265</v>
       </c>
       <c r="E177" t="s">
         <v>20</v>
@@ -3456,13 +3460,13 @@
         <v>10</v>
       </c>
       <c r="B178" t="n">
-        <v>82.6137251824475</v>
+        <v>82.8637762750443</v>
       </c>
       <c r="C178" t="n">
-        <v>174.525270437213</v>
+        <v>175.004906885108</v>
       </c>
       <c r="D178" t="n">
-        <v>99.3249152287684</v>
+        <v>99.6167091132377</v>
       </c>
       <c r="E178" t="s">
         <v>20</v>
@@ -3575,13 +3579,13 @@
         <v>7</v>
       </c>
       <c r="B185" t="n">
-        <v>171.79564260087</v>
+        <v>177.790646561649</v>
       </c>
       <c r="C185" t="n">
-        <v>130.492612237527</v>
+        <v>198.718377176356</v>
       </c>
       <c r="D185" t="n">
-        <v>165.628618668294</v>
+        <v>181.44630218132</v>
       </c>
       <c r="E185" t="s">
         <v>21</v>
@@ -3592,13 +3596,13 @@
         <v>7</v>
       </c>
       <c r="B186" t="n">
-        <v>0.745865694453643</v>
+        <v>0.707049035177698</v>
       </c>
       <c r="C186" t="n">
-        <v>0.594470334308524</v>
+        <v>0.545495696320686</v>
       </c>
       <c r="D186" t="n">
-        <v>0.735692685810953</v>
+        <v>0.669858516506269</v>
       </c>
       <c r="E186" t="s">
         <v>21</v>
@@ -3609,13 +3613,13 @@
         <v>7</v>
       </c>
       <c r="B187" t="n">
-        <v>88.3028422794931</v>
+        <v>106.060893869278</v>
       </c>
       <c r="C187" t="n">
-        <v>63.7787181384665</v>
+        <v>167.182224036787</v>
       </c>
       <c r="D187" t="n">
-        <v>84.2154882559887</v>
+        <v>116.24778223053</v>
       </c>
       <c r="E187" t="s">
         <v>21</v>
@@ -3626,13 +3630,13 @@
         <v>8</v>
       </c>
       <c r="B188" t="n">
-        <v>248.998539268186</v>
+        <v>171.79564260087</v>
       </c>
       <c r="C188" t="n">
-        <v>216.237302814114</v>
+        <v>130.492612237527</v>
       </c>
       <c r="D188" t="n">
-        <v>243.84418997821</v>
+        <v>165.628618668294</v>
       </c>
       <c r="E188" t="s">
         <v>21</v>
@@ -3643,13 +3647,13 @@
         <v>8</v>
       </c>
       <c r="B189" t="n">
-        <v>0.425424029515904</v>
+        <v>0.745865694453643</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0149670824036433</v>
+        <v>0.594470334308524</v>
       </c>
       <c r="D189" t="n">
-        <v>0.390144014223805</v>
+        <v>0.735692685810953</v>
       </c>
       <c r="E189" t="s">
         <v>21</v>
@@ -3660,13 +3664,13 @@
         <v>8</v>
       </c>
       <c r="B190" t="n">
-        <v>159.249336244245</v>
+        <v>88.3028422794931</v>
       </c>
       <c r="C190" t="n">
-        <v>166.128325719023</v>
+        <v>63.7787181384665</v>
       </c>
       <c r="D190" t="n">
-        <v>160.395834490041</v>
+        <v>84.2154882559887</v>
       </c>
       <c r="E190" t="s">
         <v>21</v>
@@ -3728,13 +3732,13 @@
         <v>10</v>
       </c>
       <c r="B194" t="n">
-        <v>130.710489559221</v>
+        <v>131.051476482329</v>
       </c>
       <c r="C194" t="n">
-        <v>127.794963108874</v>
+        <v>128.016299223973</v>
       </c>
       <c r="D194" t="n">
-        <v>130.18525049793</v>
+        <v>130.504876651407</v>
       </c>
       <c r="E194" t="s">
         <v>21</v>
@@ -3745,13 +3749,13 @@
         <v>10</v>
       </c>
       <c r="B195" t="n">
-        <v>0.82545174862511</v>
+        <v>0.824471684062587</v>
       </c>
       <c r="C195" t="n">
-        <v>0.609881478532107</v>
+        <v>0.60863128857021</v>
       </c>
       <c r="D195" t="n">
-        <v>0.806795119804318</v>
+        <v>0.805850925013609</v>
       </c>
       <c r="E195" t="s">
         <v>21</v>
@@ -3762,13 +3766,13 @@
         <v>10</v>
       </c>
       <c r="B196" t="n">
-        <v>63.7809154452366</v>
+        <v>63.6726708045976</v>
       </c>
       <c r="C196" t="n">
-        <v>63.6034956131138</v>
+        <v>63.5525960943996</v>
       </c>
       <c r="D196" t="n">
-        <v>63.7486572939416</v>
+        <v>63.650839039107</v>
       </c>
       <c r="E196" t="s">
         <v>21</v>
@@ -3782,10 +3786,10 @@
         <v>252.574724835046</v>
       </c>
       <c r="C197" t="n">
-        <v>193.113040964533</v>
+        <v>168.310475604588</v>
       </c>
       <c r="D197" t="n">
-        <v>243.674169304718</v>
+        <v>240.588990578586</v>
       </c>
       <c r="E197" t="s">
         <v>21</v>
@@ -3799,10 +3803,10 @@
         <v>0.526678982403249</v>
       </c>
       <c r="C198" t="n">
-        <v>0.53999848615894</v>
+        <v>0.525624374335176</v>
       </c>
       <c r="D198" t="n">
-        <v>0.51808759865914</v>
+        <v>0.523812093252693</v>
       </c>
       <c r="E198" t="s">
         <v>21</v>
@@ -3816,10 +3820,10 @@
         <v>147.684504774939</v>
       </c>
       <c r="C199" t="n">
-        <v>144.133218776868</v>
+        <v>109.639583687668</v>
       </c>
       <c r="D199" t="n">
-        <v>147.09262377526</v>
+        <v>141.343684593727</v>
       </c>
       <c r="E199" t="s">
         <v>21</v>
@@ -3881,13 +3885,13 @@
         <v>7</v>
       </c>
       <c r="B203" t="n">
-        <v>311.064674176406</v>
+        <v>584.738914402039</v>
       </c>
       <c r="C203" t="n">
-        <v>85.6500437273047</v>
+        <v>399.554252302826</v>
       </c>
       <c r="D203" t="n">
-        <v>286.106648994408</v>
+        <v>558.157921293136</v>
       </c>
       <c r="E203" t="s">
         <v>22</v>
@@ -3898,13 +3902,13 @@
         <v>7</v>
       </c>
       <c r="B204" t="n">
-        <v>0.865703065868911</v>
+        <v>0.52431991244091</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0460853280061394</v>
+        <v>0.0423660187443916</v>
       </c>
       <c r="D204" t="n">
-        <v>0.867777224259522</v>
+        <v>0.496963047507272</v>
       </c>
       <c r="E204" t="s">
         <v>22</v>
@@ -3915,13 +3919,13 @@
         <v>7</v>
       </c>
       <c r="B205" t="n">
-        <v>131.870108982634</v>
+        <v>395.557134892432</v>
       </c>
       <c r="C205" t="n">
-        <v>69.4542952500308</v>
+        <v>317.812563250915</v>
       </c>
       <c r="D205" t="n">
-        <v>121.467473360534</v>
+        <v>382.599706285512</v>
       </c>
       <c r="E205" t="s">
         <v>22</v>
@@ -3932,13 +3936,13 @@
         <v>8</v>
       </c>
       <c r="B206" t="n">
-        <v>311.378020135978</v>
+        <v>311.064674176406</v>
       </c>
       <c r="C206" t="n">
-        <v>39.2646639298703</v>
+        <v>85.6500437273047</v>
       </c>
       <c r="D206" t="n">
-        <v>284.699570001002</v>
+        <v>286.106648994408</v>
       </c>
       <c r="E206" t="s">
         <v>22</v>
@@ -3949,13 +3953,13 @@
         <v>8</v>
       </c>
       <c r="B207" t="n">
-        <v>0.867080996725364</v>
+        <v>0.865703065868911</v>
       </c>
       <c r="C207" t="n">
-        <v>0.10808173250988</v>
+        <v>0.0460853280061394</v>
       </c>
       <c r="D207" t="n">
-        <v>0.870735655047332</v>
+        <v>0.867777224259522</v>
       </c>
       <c r="E207" t="s">
         <v>22</v>
@@ -3966,13 +3970,13 @@
         <v>8</v>
       </c>
       <c r="B208" t="n">
-        <v>168.90864093984</v>
+        <v>131.870108982634</v>
       </c>
       <c r="C208" t="n">
-        <v>32.5617585792851</v>
+        <v>69.4542952500308</v>
       </c>
       <c r="D208" t="n">
-        <v>146.184160546414</v>
+        <v>121.467473360534</v>
       </c>
       <c r="E208" t="s">
         <v>22</v>
@@ -4034,13 +4038,13 @@
         <v>10</v>
       </c>
       <c r="B212" t="n">
-        <v>93.0359459699934</v>
+        <v>93.0338912972397</v>
       </c>
       <c r="C212" t="n">
-        <v>56.9774927460917</v>
+        <v>57.9542527461413</v>
       </c>
       <c r="D212" t="n">
-        <v>87.5910199538149</v>
+        <v>87.7056726639974</v>
       </c>
       <c r="E212" t="s">
         <v>22</v>
@@ -4051,13 +4055,13 @@
         <v>10</v>
       </c>
       <c r="B213" t="n">
-        <v>0.95556263702478</v>
+        <v>0.955557921970119</v>
       </c>
       <c r="C213" t="n">
-        <v>0.0456437197083338</v>
+        <v>0.0467835663867276</v>
       </c>
       <c r="D213" t="n">
-        <v>0.95349939708039</v>
+        <v>0.953373351779989</v>
       </c>
       <c r="E213" t="s">
         <v>22</v>
@@ -4068,13 +4072,13 @@
         <v>10</v>
       </c>
       <c r="B214" t="n">
-        <v>52.0653249036136</v>
+        <v>52.2325328728367</v>
       </c>
       <c r="C214" t="n">
-        <v>46.3883122566196</v>
+        <v>47.2986473890992</v>
       </c>
       <c r="D214" t="n">
-        <v>51.0331407859783</v>
+        <v>51.3354627848844</v>
       </c>
       <c r="E214" t="s">
         <v>22</v>
@@ -4088,10 +4092,10 @@
         <v>596.760900891002</v>
       </c>
       <c r="C215" t="n">
-        <v>2692.3983568963</v>
+        <v>2985.42593294928</v>
       </c>
       <c r="D215" t="n">
-        <v>1226.7590619446</v>
+        <v>1335.0022387801</v>
       </c>
       <c r="E215" t="s">
         <v>22</v>
@@ -4105,10 +4109,10 @@
         <v>0.689487445811981</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0103845361412744</v>
+        <v>0.0139139808628561</v>
       </c>
       <c r="D216" t="n">
-        <v>0.253097856000157</v>
+        <v>0.21451517505343</v>
       </c>
       <c r="E216" t="s">
         <v>22</v>
@@ -4122,10 +4126,10 @@
         <v>342.632638794349</v>
       </c>
       <c r="C217" t="n">
-        <v>2380.37107842754</v>
+        <v>2642.43768672048</v>
       </c>
       <c r="D217" t="n">
-        <v>682.255712066547</v>
+        <v>725.933480115371</v>
       </c>
       <c r="E217" t="s">
         <v>22</v>
@@ -4187,13 +4191,13 @@
         <v>7</v>
       </c>
       <c r="B221" t="n">
-        <v>56.6987170390991</v>
+        <v>63.6921189576006</v>
       </c>
       <c r="C221" t="n">
-        <v>49.3973543829009</v>
+        <v>80.0844152685036</v>
       </c>
       <c r="D221" t="n">
-        <v>55.5485091150505</v>
+        <v>66.7045021662005</v>
       </c>
       <c r="E221" t="s">
         <v>23</v>
@@ -4204,13 +4208,13 @@
         <v>7</v>
       </c>
       <c r="B222" t="n">
-        <v>0.668472488865309</v>
+        <v>0.577241885986699</v>
       </c>
       <c r="C222" t="n">
-        <v>0.45556668233926</v>
+        <v>0.314913832765413</v>
       </c>
       <c r="D222" t="n">
-        <v>0.710884744831772</v>
+        <v>0.604942795690699</v>
       </c>
       <c r="E222" t="s">
         <v>23</v>
@@ -4221,13 +4225,13 @@
         <v>7</v>
       </c>
       <c r="B223" t="n">
-        <v>42.1883519671817</v>
+        <v>45.2921041294484</v>
       </c>
       <c r="C223" t="n">
-        <v>40.7187599077427</v>
+        <v>65.6016135300002</v>
       </c>
       <c r="D223" t="n">
-        <v>41.9434199572752</v>
+        <v>48.6770223628737</v>
       </c>
       <c r="E223" t="s">
         <v>23</v>
@@ -4238,13 +4242,13 @@
         <v>8</v>
       </c>
       <c r="B224" t="n">
-        <v>65.4792645407713</v>
+        <v>56.6987170390991</v>
       </c>
       <c r="C224" t="n">
-        <v>65.4374881089136</v>
+        <v>49.3973543829009</v>
       </c>
       <c r="D224" t="n">
-        <v>65.4723036532825</v>
+        <v>55.5485091150505</v>
       </c>
       <c r="E224" t="s">
         <v>23</v>
@@ -4255,13 +4259,13 @@
         <v>8</v>
       </c>
       <c r="B225" t="n">
-        <v>0.557332343440847</v>
+        <v>0.668472488865309</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0475003049085783</v>
+        <v>0.45556668233926</v>
       </c>
       <c r="D225" t="n">
-        <v>0.598346028193505</v>
+        <v>0.710884744831772</v>
       </c>
       <c r="E225" t="s">
         <v>23</v>
@@ -4272,13 +4276,13 @@
         <v>8</v>
       </c>
       <c r="B226" t="n">
-        <v>47.991241751026</v>
+        <v>42.1883519671817</v>
       </c>
       <c r="C226" t="n">
-        <v>57.7667748356256</v>
+        <v>40.7187599077427</v>
       </c>
       <c r="D226" t="n">
-        <v>49.6204972651259</v>
+        <v>41.9434199572752</v>
       </c>
       <c r="E226" t="s">
         <v>23</v>
@@ -4340,13 +4344,13 @@
         <v>10</v>
       </c>
       <c r="B230" t="n">
-        <v>54.3122263300543</v>
+        <v>54.1691805566072</v>
       </c>
       <c r="C230" t="n">
-        <v>54.2234558510758</v>
+        <v>54.1828777119222</v>
       </c>
       <c r="D230" t="n">
-        <v>54.2960970380431</v>
+        <v>54.1716712060825</v>
       </c>
       <c r="E230" t="s">
         <v>23</v>
@@ -4357,13 +4361,13 @@
         <v>10</v>
       </c>
       <c r="B231" t="n">
-        <v>0.695805878208668</v>
+        <v>0.69743463483834</v>
       </c>
       <c r="C231" t="n">
-        <v>0.375252837763498</v>
+        <v>0.470355778013958</v>
       </c>
       <c r="D231" t="n">
-        <v>0.720959322154018</v>
+        <v>0.724452193938316</v>
       </c>
       <c r="E231" t="s">
         <v>23</v>
@@ -4374,13 +4378,13 @@
         <v>10</v>
       </c>
       <c r="B232" t="n">
-        <v>40.7535821958967</v>
+        <v>40.6922893113187</v>
       </c>
       <c r="C232" t="n">
-        <v>45.8540197999061</v>
+        <v>46.8091089450231</v>
       </c>
       <c r="D232" t="n">
-        <v>41.6809344875348</v>
+        <v>41.8044383356286</v>
       </c>
       <c r="E232" t="s">
         <v>23</v>
@@ -4394,10 +4398,10 @@
         <v>70.2939827794162</v>
       </c>
       <c r="C233" t="n">
-        <v>60.2756536403983</v>
+        <v>67.517654187165</v>
       </c>
       <c r="D233" t="n">
-        <v>68.725752689878</v>
+        <v>69.8389262301738</v>
       </c>
       <c r="E233" t="s">
         <v>23</v>
@@ -4411,10 +4415,10 @@
         <v>0.534382106597109</v>
       </c>
       <c r="C234" t="n">
-        <v>0.411268125517915</v>
+        <v>0.42093839024728</v>
       </c>
       <c r="D234" t="n">
-        <v>0.575337031916904</v>
+        <v>0.562331128386016</v>
       </c>
       <c r="E234" t="s">
         <v>23</v>
@@ -4428,10 +4432,10 @@
         <v>53.4492730571038</v>
       </c>
       <c r="C235" t="n">
-        <v>52.527235551093</v>
+        <v>56.7911823191342</v>
       </c>
       <c r="D235" t="n">
-        <v>53.2956001394353</v>
+        <v>54.0062579341088</v>
       </c>
       <c r="E235" t="s">
         <v>23</v>
@@ -4493,13 +4497,13 @@
         <v>7</v>
       </c>
       <c r="B239" t="n">
-        <v>29.7716049904188</v>
+        <v>30.3885073581039</v>
       </c>
       <c r="C239" t="n">
-        <v>27.480871995225</v>
+        <v>44.073421452119</v>
       </c>
       <c r="D239" t="n">
-        <v>29.4022126269027</v>
+        <v>33.0650202272325</v>
       </c>
       <c r="E239" t="s">
         <v>24</v>
@@ -4510,13 +4514,13 @@
         <v>7</v>
       </c>
       <c r="B240" t="n">
-        <v>0.856747515933635</v>
+        <v>0.833837958338705</v>
       </c>
       <c r="C240" t="n">
-        <v>0.84267384080134</v>
+        <v>0.695159245137635</v>
       </c>
       <c r="D240" t="n">
-        <v>0.862404332193328</v>
+        <v>0.819519920536722</v>
       </c>
       <c r="E240" t="s">
         <v>24</v>
@@ -4527,13 +4531,13 @@
         <v>7</v>
       </c>
       <c r="B241" t="n">
-        <v>20.7072871096736</v>
+        <v>24.000862362564</v>
       </c>
       <c r="C241" t="n">
-        <v>21.351262785144</v>
+        <v>36.2406820062403</v>
       </c>
       <c r="D241" t="n">
-        <v>20.8146163889186</v>
+        <v>26.0408323031767</v>
       </c>
       <c r="E241" t="s">
         <v>24</v>
@@ -4544,13 +4548,13 @@
         <v>8</v>
       </c>
       <c r="B242" t="n">
-        <v>35.2916079975191</v>
+        <v>29.7716049904188</v>
       </c>
       <c r="C242" t="n">
-        <v>44.9832042358714</v>
+        <v>27.480871995225</v>
       </c>
       <c r="D242" t="n">
-        <v>37.0831872025111</v>
+        <v>29.4022126269027</v>
       </c>
       <c r="E242" t="s">
         <v>24</v>
@@ -4561,13 +4565,13 @@
         <v>8</v>
       </c>
       <c r="B243" t="n">
-        <v>0.777564735887972</v>
+        <v>0.856747515933635</v>
       </c>
       <c r="C243" t="n">
-        <v>0.516031691574215</v>
+        <v>0.84267384080134</v>
       </c>
       <c r="D243" t="n">
-        <v>0.76437038220716</v>
+        <v>0.862404332193328</v>
       </c>
       <c r="E243" t="s">
         <v>24</v>
@@ -4578,13 +4582,13 @@
         <v>8</v>
       </c>
       <c r="B244" t="n">
-        <v>26.5684568735198</v>
+        <v>20.7072871096736</v>
       </c>
       <c r="C244" t="n">
-        <v>35.4350234928045</v>
+        <v>21.351262785144</v>
       </c>
       <c r="D244" t="n">
-        <v>28.0462179767339</v>
+        <v>20.8146163889186</v>
       </c>
       <c r="E244" t="s">
         <v>24</v>
@@ -4646,13 +4650,13 @@
         <v>10</v>
       </c>
       <c r="B248" t="n">
-        <v>26.1657429399224</v>
+        <v>26.1407379332636</v>
       </c>
       <c r="C248" t="n">
-        <v>26.4042507257439</v>
+        <v>26.5456691033274</v>
       </c>
       <c r="D248" t="n">
-        <v>26.2092694309732</v>
+        <v>26.2148270216872</v>
       </c>
       <c r="E248" t="s">
         <v>24</v>
@@ -4663,13 +4667,13 @@
         <v>10</v>
       </c>
       <c r="B249" t="n">
-        <v>0.872603930209363</v>
+        <v>0.872830285088641</v>
       </c>
       <c r="C249" t="n">
-        <v>0.830711413396912</v>
+        <v>0.829915078175028</v>
       </c>
       <c r="D249" t="n">
-        <v>0.874532589803256</v>
+        <v>0.874485643464845</v>
       </c>
       <c r="E249" t="s">
         <v>24</v>
@@ -4680,13 +4684,13 @@
         <v>10</v>
       </c>
       <c r="B250" t="n">
-        <v>18.3670805857168</v>
+        <v>18.3514343398038</v>
       </c>
       <c r="C250" t="n">
-        <v>21.1384181772344</v>
+        <v>21.2455450778234</v>
       </c>
       <c r="D250" t="n">
-        <v>18.8709601478109</v>
+        <v>18.877636292171</v>
       </c>
       <c r="E250" t="s">
         <v>24</v>
@@ -4700,10 +4704,10 @@
         <v>42.7856493697859</v>
       </c>
       <c r="C251" t="n">
-        <v>31.025940391426</v>
+        <v>32.3033149759744</v>
       </c>
       <c r="D251" t="n">
-        <v>41.0602564067811</v>
+        <v>41.2241092857249</v>
       </c>
       <c r="E251" t="s">
         <v>24</v>
@@ -4717,10 +4721,10 @@
         <v>0.701797032349928</v>
       </c>
       <c r="C252" t="n">
-        <v>0.732486055170222</v>
+        <v>0.727597605864099</v>
       </c>
       <c r="D252" t="n">
-        <v>0.73512391445308</v>
+        <v>0.73444632781328</v>
       </c>
       <c r="E252" t="s">
         <v>24</v>
@@ -4734,10 +4738,10 @@
         <v>29.0613129428882</v>
       </c>
       <c r="C253" t="n">
-        <v>25.2531577955874</v>
+        <v>25.9002834119154</v>
       </c>
       <c r="D253" t="n">
-        <v>28.4266204183381</v>
+        <v>28.5344746877261</v>
       </c>
       <c r="E253" t="s">
         <v>24</v>
@@ -4799,13 +4803,13 @@
         <v>7</v>
       </c>
       <c r="B257" t="n">
-        <v>853.549531781783</v>
+        <v>672.368195110237</v>
       </c>
       <c r="C257" t="n">
-        <v>1224.49563229166</v>
+        <v>833.96316775115</v>
       </c>
       <c r="D257" t="n">
-        <v>925.754068271362</v>
+        <v>701.889059864464</v>
       </c>
       <c r="E257" t="s">
         <v>25</v>
@@ -4816,13 +4820,13 @@
         <v>7</v>
       </c>
       <c r="B258" t="n">
-        <v>0.740601556618368</v>
+        <v>0.832389682669648</v>
       </c>
       <c r="C258" t="n">
-        <v>0.578107816010404</v>
+        <v>0.809936878589256</v>
       </c>
       <c r="D258" t="n">
-        <v>0.798797011536066</v>
+        <v>0.865737438417882</v>
       </c>
       <c r="E258" t="s">
         <v>25</v>
@@ -4833,13 +4837,13 @@
         <v>7</v>
       </c>
       <c r="B259" t="n">
-        <v>510.595386298537</v>
+        <v>520.149618384318</v>
       </c>
       <c r="C259" t="n">
-        <v>1011.17894382104</v>
+        <v>625.069522495323</v>
       </c>
       <c r="D259" t="n">
-        <v>594.025979218955</v>
+        <v>537.636269069485</v>
       </c>
       <c r="E259" t="s">
         <v>25</v>
@@ -4850,13 +4854,13 @@
         <v>8</v>
       </c>
       <c r="B260" t="n">
-        <v>632.47354931897</v>
+        <v>853.549531781783</v>
       </c>
       <c r="C260" t="n">
-        <v>1387.72703991816</v>
+        <v>1224.49563229166</v>
       </c>
       <c r="D260" t="n">
-        <v>808.898457807559</v>
+        <v>925.754068271362</v>
       </c>
       <c r="E260" t="s">
         <v>25</v>
@@ -4867,13 +4871,13 @@
         <v>8</v>
       </c>
       <c r="B261" t="n">
-        <v>0.856552326879298</v>
+        <v>0.740601556618368</v>
       </c>
       <c r="C261" t="n">
-        <v>0.0378365258788812</v>
+        <v>0.578107816010404</v>
       </c>
       <c r="D261" t="n">
-        <v>0.830131822553163</v>
+        <v>0.798797011536066</v>
       </c>
       <c r="E261" t="s">
         <v>25</v>
@@ -4884,13 +4888,13 @@
         <v>8</v>
       </c>
       <c r="B262" t="n">
-        <v>454.778212421148</v>
+        <v>510.595386298537</v>
       </c>
       <c r="C262" t="n">
-        <v>1149.26704976358</v>
+        <v>1011.17894382104</v>
       </c>
       <c r="D262" t="n">
-        <v>570.52635197822</v>
+        <v>594.025979218955</v>
       </c>
       <c r="E262" t="s">
         <v>25</v>
@@ -4952,13 +4956,13 @@
         <v>10</v>
       </c>
       <c r="B266" t="n">
-        <v>404.678730918643</v>
+        <v>405.42879078629</v>
       </c>
       <c r="C266" t="n">
-        <v>674.355851002485</v>
+        <v>772.129367669228</v>
       </c>
       <c r="D266" t="n">
-        <v>465.480739264051</v>
+        <v>492.83226543765</v>
       </c>
       <c r="E266" t="s">
         <v>25</v>
@@ -4969,13 +4973,13 @@
         <v>10</v>
       </c>
       <c r="B267" t="n">
-        <v>0.934389793548504</v>
+        <v>0.934135314560586</v>
       </c>
       <c r="C267" t="n">
-        <v>0.76579642127697</v>
+        <v>0.700075583057007</v>
       </c>
       <c r="D267" t="n">
-        <v>0.937771560298382</v>
+        <v>0.93064725833996</v>
       </c>
       <c r="E267" t="s">
         <v>25</v>
@@ -4986,13 +4990,13 @@
         <v>10</v>
       </c>
       <c r="B268" t="n">
-        <v>277.142949355428</v>
+        <v>277.23261948115</v>
       </c>
       <c r="C268" t="n">
-        <v>561.278063871321</v>
+        <v>628.133604269117</v>
       </c>
       <c r="D268" t="n">
-        <v>328.803879267408</v>
+        <v>341.032798533508</v>
       </c>
       <c r="E268" t="s">
         <v>25</v>
@@ -5006,10 +5010,10 @@
         <v>536.230470163635</v>
       </c>
       <c r="C269" t="n">
-        <v>675.494867568382</v>
+        <v>687.380454504394</v>
       </c>
       <c r="D269" t="n">
-        <v>561.84352830226</v>
+        <v>564.241005672552</v>
       </c>
       <c r="E269" t="s">
         <v>25</v>
@@ -5023,10 +5027,10 @@
         <v>0.893490885890576</v>
       </c>
       <c r="C270" t="n">
-        <v>0.763715749976228</v>
+        <v>0.759295072104415</v>
       </c>
       <c r="D270" t="n">
-        <v>0.914412025342157</v>
+        <v>0.913888315869676</v>
       </c>
       <c r="E270" t="s">
         <v>25</v>
@@ -5040,10 +5044,10 @@
         <v>343.623623431781</v>
       </c>
       <c r="C271" t="n">
-        <v>551.397883186769</v>
+        <v>564.007219340404</v>
       </c>
       <c r="D271" t="n">
-        <v>378.252666724279</v>
+        <v>380.354222749885</v>
       </c>
       <c r="E271" t="s">
         <v>25</v>
@@ -5105,13 +5109,13 @@
         <v>7</v>
       </c>
       <c r="B275" t="n">
-        <v>465.819515270236</v>
+        <v>424.567141577812</v>
       </c>
       <c r="C275" t="n">
-        <v>2820.97650396127</v>
+        <v>3599.73275768728</v>
       </c>
       <c r="D275" t="n">
-        <v>1227.65681550495</v>
+        <v>1519.83344566133</v>
       </c>
       <c r="E275" t="s">
         <v>26</v>
@@ -5122,13 +5126,13 @@
         <v>7</v>
       </c>
       <c r="B276" t="n">
-        <v>0.917342083370674</v>
+        <v>0.929849035791045</v>
       </c>
       <c r="C276" t="n">
-        <v>0.149669474247976</v>
+        <v>0.0802644460981943</v>
       </c>
       <c r="D276" t="n">
-        <v>0.705800360365708</v>
+        <v>0.62397882921618</v>
       </c>
       <c r="E276" t="s">
         <v>26</v>
@@ -5139,13 +5143,13 @@
         <v>7</v>
       </c>
       <c r="B277" t="n">
-        <v>349.712072636889</v>
+        <v>330.687105710173</v>
       </c>
       <c r="C277" t="n">
-        <v>2517.75501741866</v>
+        <v>3244.38279960548</v>
       </c>
       <c r="D277" t="n">
-        <v>711.052563433851</v>
+        <v>816.303054692724</v>
       </c>
       <c r="E277" t="s">
         <v>26</v>
@@ -5156,13 +5160,13 @@
         <v>8</v>
       </c>
       <c r="B278" t="n">
-        <v>888.230611353856</v>
+        <v>465.819515270236</v>
       </c>
       <c r="C278" t="n">
-        <v>1857.64949554672</v>
+        <v>2820.97650396127</v>
       </c>
       <c r="D278" t="n">
-        <v>1110.22743488554</v>
+        <v>1227.65681550495</v>
       </c>
       <c r="E278" t="s">
         <v>26</v>
@@ -5173,13 +5177,13 @@
         <v>8</v>
       </c>
       <c r="B279" t="n">
-        <v>0.704725058931672</v>
+        <v>0.917342083370674</v>
       </c>
       <c r="C279" t="n">
-        <v>0.117405507382614</v>
+        <v>0.149669474247976</v>
       </c>
       <c r="D279" t="n">
-        <v>0.635576167819299</v>
+        <v>0.705800360365708</v>
       </c>
       <c r="E279" t="s">
         <v>26</v>
@@ -5190,13 +5194,13 @@
         <v>8</v>
       </c>
       <c r="B280" t="n">
-        <v>661.605021001533</v>
+        <v>349.712072636889</v>
       </c>
       <c r="C280" t="n">
-        <v>1456.86467427295</v>
+        <v>2517.75501741866</v>
       </c>
       <c r="D280" t="n">
-        <v>794.148296546769</v>
+        <v>711.052563433851</v>
       </c>
       <c r="E280" t="s">
         <v>26</v>
@@ -5258,13 +5262,13 @@
         <v>10</v>
       </c>
       <c r="B284" t="n">
-        <v>369.408429831286</v>
+        <v>371.28081768571</v>
       </c>
       <c r="C284" t="n">
-        <v>1968.48661421388</v>
+        <v>1767.73440603071</v>
       </c>
       <c r="D284" t="n">
-        <v>903.429948632742</v>
+        <v>825.195011153662</v>
       </c>
       <c r="E284" t="s">
         <v>26</v>
@@ -5275,13 +5279,13 @@
         <v>10</v>
       </c>
       <c r="B285" t="n">
-        <v>0.942503709371369</v>
+        <v>0.941885396598163</v>
       </c>
       <c r="C285" t="n">
-        <v>0.241025515084652</v>
+        <v>0.348352311028937</v>
       </c>
       <c r="D285" t="n">
-        <v>0.789421081766512</v>
+        <v>0.811494050692957</v>
       </c>
       <c r="E285" t="s">
         <v>26</v>
@@ -5292,13 +5296,13 @@
         <v>10</v>
       </c>
       <c r="B286" t="n">
-        <v>271.192665611765</v>
+        <v>271.994842416687</v>
       </c>
       <c r="C286" t="n">
-        <v>1670.59380919784</v>
+        <v>1499.75406172559</v>
       </c>
       <c r="D286" t="n">
-        <v>525.629237172869</v>
+        <v>495.223791381943</v>
       </c>
       <c r="E286" t="s">
         <v>26</v>
@@ -5312,10 +5316,10 @@
         <v>679.664405300572</v>
       </c>
       <c r="C287" t="n">
-        <v>2714.23736230116</v>
+        <v>2812.74491742013</v>
       </c>
       <c r="D287" t="n">
-        <v>1269.96082472876</v>
+        <v>1305.19810052189</v>
       </c>
       <c r="E287" t="s">
         <v>26</v>
@@ -5329,10 +5333,10 @@
         <v>0.829515710037644</v>
       </c>
       <c r="C288" t="n">
-        <v>0.179935594149687</v>
+        <v>0.163123450746797</v>
       </c>
       <c r="D288" t="n">
-        <v>0.674073680426958</v>
+        <v>0.665365324684946</v>
       </c>
       <c r="E288" t="s">
         <v>26</v>
@@ -5346,10 +5350,10 @@
         <v>445.526608135485</v>
       </c>
       <c r="C289" t="n">
-        <v>2424.62833873839</v>
+        <v>2510.95296222309</v>
       </c>
       <c r="D289" t="n">
-        <v>775.376896569302</v>
+        <v>789.764333816752</v>
       </c>
       <c r="E289" t="s">
         <v>26</v>
@@ -5411,13 +5415,13 @@
         <v>7</v>
       </c>
       <c r="B293" t="n">
-        <v>4885.62869453548</v>
+        <v>5105.51294540187</v>
       </c>
       <c r="C293" t="n">
-        <v>18807.286592601</v>
+        <v>21340.6184564432</v>
       </c>
       <c r="D293" t="n">
-        <v>8879.38499822831</v>
+        <v>9880.56432499188</v>
       </c>
       <c r="E293" t="s">
         <v>27</v>
@@ -5428,13 +5432,13 @@
         <v>7</v>
       </c>
       <c r="B294" t="n">
-        <v>0.79958424707081</v>
+        <v>0.779825845578374</v>
       </c>
       <c r="C294" t="n">
-        <v>0.503913869549033</v>
+        <v>0.646903716062244</v>
       </c>
       <c r="D294" t="n">
-        <v>0.519350412870274</v>
+        <v>0.425995979989511</v>
       </c>
       <c r="E294" t="s">
         <v>27</v>
@@ -5445,13 +5449,13 @@
         <v>7</v>
       </c>
       <c r="B295" t="n">
-        <v>3228.78994308731</v>
+        <v>3653.92543744295</v>
       </c>
       <c r="C295" t="n">
-        <v>18009.7731350341</v>
+        <v>20851.9633163331</v>
       </c>
       <c r="D295" t="n">
-        <v>5692.28714174511</v>
+        <v>6520.26508392463</v>
       </c>
       <c r="E295" t="s">
         <v>27</v>
@@ -5462,13 +5466,13 @@
         <v>8</v>
       </c>
       <c r="B296" t="n">
-        <v>7765.96236670951</v>
+        <v>4885.62869453548</v>
       </c>
       <c r="C296" t="n">
-        <v>24299.4463893353</v>
+        <v>18807.286592601</v>
       </c>
       <c r="D296" t="n">
-        <v>12192.9894627604</v>
+        <v>8879.38499822831</v>
       </c>
       <c r="E296" t="s">
         <v>27</v>
@@ -5479,13 +5483,13 @@
         <v>8</v>
       </c>
       <c r="B297" t="n">
-        <v>0.505890753553508</v>
+        <v>0.79958424707081</v>
       </c>
       <c r="C297" t="n">
-        <v>0.00478408689468463</v>
+        <v>0.503913869549033</v>
       </c>
       <c r="D297" t="n">
-        <v>0.145239961550257</v>
+        <v>0.519350412870274</v>
       </c>
       <c r="E297" t="s">
         <v>27</v>
@@ -5496,13 +5500,13 @@
         <v>8</v>
       </c>
       <c r="B298" t="n">
-        <v>5939.56233858457</v>
+        <v>3228.78994308731</v>
       </c>
       <c r="C298" t="n">
-        <v>23074.1913087179</v>
+        <v>18009.7731350341</v>
       </c>
       <c r="D298" t="n">
-        <v>8795.3338336068</v>
+        <v>5692.28714174511</v>
       </c>
       <c r="E298" t="s">
         <v>27</v>
@@ -5564,13 +5568,13 @@
         <v>10</v>
       </c>
       <c r="B302" t="n">
-        <v>3648.75671125569</v>
+        <v>3622.42738616317</v>
       </c>
       <c r="C302" t="n">
-        <v>21945.4995772578</v>
+        <v>21943.3431140071</v>
       </c>
       <c r="D302" t="n">
-        <v>9922.56717713465</v>
+        <v>9913.80321274016</v>
       </c>
       <c r="E302" t="s">
         <v>27</v>
@@ -5581,13 +5585,13 @@
         <v>10</v>
       </c>
       <c r="B303" t="n">
-        <v>0.8749494428813</v>
+        <v>0.876730934451522</v>
       </c>
       <c r="C303" t="n">
-        <v>0.486580527666396</v>
+        <v>0.457336964095814</v>
       </c>
       <c r="D303" t="n">
-        <v>0.429278453198703</v>
+        <v>0.429805036654639</v>
       </c>
       <c r="E303" t="s">
         <v>27</v>
@@ -5598,13 +5602,13 @@
         <v>10</v>
       </c>
       <c r="B304" t="n">
-        <v>2361.65067480409</v>
+        <v>2350.38667397553</v>
       </c>
       <c r="C304" t="n">
-        <v>21244.5577408214</v>
+        <v>21200.4751282033</v>
       </c>
       <c r="D304" t="n">
-        <v>5794.90650498906</v>
+        <v>5777.67548383513</v>
       </c>
       <c r="E304" t="s">
         <v>27</v>
@@ -5717,13 +5721,13 @@
         <v>7</v>
       </c>
       <c r="B311" t="n">
-        <v>903.929125777394</v>
+        <v>871.721189702953</v>
       </c>
       <c r="C311" t="n">
-        <v>3252.56179632521</v>
+        <v>3621.17427545163</v>
       </c>
       <c r="D311" t="n">
-        <v>1563.36163235178</v>
+        <v>1678.90799311528</v>
       </c>
       <c r="E311" t="s">
         <v>28</v>
@@ -5734,13 +5738,13 @@
         <v>7</v>
       </c>
       <c r="B312" t="n">
-        <v>0.923519889005352</v>
+        <v>0.928883916648125</v>
       </c>
       <c r="C312" t="n">
-        <v>0.487482447370313</v>
+        <v>0.535637114320758</v>
       </c>
       <c r="D312" t="n">
-        <v>0.864440711628198</v>
+        <v>0.849956574524942</v>
       </c>
       <c r="E312" t="s">
         <v>28</v>
@@ -5751,13 +5755,13 @@
         <v>7</v>
       </c>
       <c r="B313" t="n">
-        <v>577.426371470469</v>
+        <v>579.590022885802</v>
       </c>
       <c r="C313" t="n">
-        <v>3056.43700543712</v>
+        <v>3432.10674636182</v>
       </c>
       <c r="D313" t="n">
-        <v>990.594810464911</v>
+        <v>1055.00947679847</v>
       </c>
       <c r="E313" t="s">
         <v>28</v>
@@ -5768,13 +5772,13 @@
         <v>8</v>
       </c>
       <c r="B314" t="n">
-        <v>1445.01841243038</v>
+        <v>903.929125777394</v>
       </c>
       <c r="C314" t="n">
-        <v>2984.18351070791</v>
+        <v>3252.56179632521</v>
       </c>
       <c r="D314" t="n">
-        <v>1795.63091451144</v>
+        <v>1563.36163235178</v>
       </c>
       <c r="E314" t="s">
         <v>28</v>
@@ -5785,13 +5789,13 @@
         <v>8</v>
       </c>
       <c r="B315" t="n">
-        <v>0.81215571411008</v>
+        <v>0.923519889005352</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0423619480741995</v>
+        <v>0.487482447370313</v>
       </c>
       <c r="D315" t="n">
-        <v>0.797098472943447</v>
+        <v>0.864440711628198</v>
       </c>
       <c r="E315" t="s">
         <v>28</v>
@@ -5802,13 +5806,13 @@
         <v>8</v>
       </c>
       <c r="B316" t="n">
-        <v>1091.69938915701</v>
+        <v>577.426371470469</v>
       </c>
       <c r="C316" t="n">
-        <v>2623.93785984993</v>
+        <v>3056.43700543712</v>
       </c>
       <c r="D316" t="n">
-        <v>1347.07246760583</v>
+        <v>990.594810464911</v>
       </c>
       <c r="E316" t="s">
         <v>28</v>
@@ -5870,13 +5874,13 @@
         <v>10</v>
       </c>
       <c r="B320" t="n">
-        <v>945.697134068023</v>
+        <v>949.203191034869</v>
       </c>
       <c r="C320" t="n">
-        <v>3290.25209197513</v>
+        <v>3318.67760388842</v>
       </c>
       <c r="D320" t="n">
-        <v>1643.18441619684</v>
+        <v>1655.18805187969</v>
       </c>
       <c r="E320" t="s">
         <v>28</v>
@@ -5887,13 +5891,13 @@
         <v>10</v>
       </c>
       <c r="B321" t="n">
-        <v>0.878736706739546</v>
+        <v>0.877840413695495</v>
       </c>
       <c r="C321" t="n">
-        <v>0.526060670786863</v>
+        <v>0.52056979082322</v>
       </c>
       <c r="D321" t="n">
-        <v>0.808407930115397</v>
+        <v>0.805395808426361</v>
       </c>
       <c r="E321" t="s">
         <v>28</v>
@@ -5904,13 +5908,13 @@
         <v>10</v>
       </c>
       <c r="B322" t="n">
-        <v>605.533613502485</v>
+        <v>609.142437996969</v>
       </c>
       <c r="C322" t="n">
-        <v>3126.45881732896</v>
+        <v>3152.43875308806</v>
       </c>
       <c r="D322" t="n">
-        <v>1063.88365056185</v>
+        <v>1071.55994983171</v>
       </c>
       <c r="E322" t="s">
         <v>28</v>
@@ -5924,10 +5928,10 @@
         <v>1145.48267134023</v>
       </c>
       <c r="C323" t="n">
-        <v>3034.84256097696</v>
+        <v>3032.08043083539</v>
       </c>
       <c r="D323" t="n">
-        <v>1621.2609352816</v>
+        <v>1620.39935873633</v>
       </c>
       <c r="E323" t="s">
         <v>28</v>
@@ -5941,10 +5945,10 @@
         <v>0.878106884396577</v>
       </c>
       <c r="C324" t="n">
-        <v>0.607940105454839</v>
+        <v>0.601507740479384</v>
       </c>
       <c r="D324" t="n">
-        <v>0.846425601194934</v>
+        <v>0.846507830179814</v>
       </c>
       <c r="E324" t="s">
         <v>28</v>
@@ -5958,10 +5962,10 @@
         <v>768.854477915248</v>
       </c>
       <c r="C325" t="n">
-        <v>2867.61354694515</v>
+        <v>2871.58606350614</v>
       </c>
       <c r="D325" t="n">
-        <v>1118.6476560869</v>
+        <v>1119.3097421804</v>
       </c>
       <c r="E325" t="s">
         <v>28</v>
@@ -6023,13 +6027,13 @@
         <v>7</v>
       </c>
       <c r="B329" t="n">
-        <v>1585.93655741504</v>
+        <v>1457.83108358321</v>
       </c>
       <c r="C329" t="n">
-        <v>3379.74503576432</v>
+        <v>6356.76579133476</v>
       </c>
       <c r="D329" t="n">
-        <v>1999.94376285522</v>
+        <v>2916.47128870921</v>
       </c>
       <c r="E329" t="s">
         <v>29</v>
@@ -6040,13 +6044,13 @@
         <v>7</v>
       </c>
       <c r="B330" t="n">
-        <v>0.933169712452103</v>
+        <v>0.943416606918941</v>
       </c>
       <c r="C330" t="n">
-        <v>0.765726087440194</v>
+        <v>0.714629436733876</v>
       </c>
       <c r="D330" t="n">
-        <v>0.943563353867994</v>
+        <v>0.903831156252371</v>
       </c>
       <c r="E330" t="s">
         <v>29</v>
@@ -6057,13 +6061,13 @@
         <v>7</v>
       </c>
       <c r="B331" t="n">
-        <v>1090.19685833742</v>
+        <v>1019.62730440963</v>
       </c>
       <c r="C331" t="n">
-        <v>2816.57056674105</v>
+        <v>5808.02270108136</v>
       </c>
       <c r="D331" t="n">
-        <v>1377.92580973802</v>
+        <v>1817.69320385492</v>
       </c>
       <c r="E331" t="s">
         <v>29</v>
@@ -6074,13 +6078,13 @@
         <v>8</v>
       </c>
       <c r="B332" t="n">
-        <v>3181.10538866401</v>
+        <v>1585.93655741504</v>
       </c>
       <c r="C332" t="n">
-        <v>10389.8767028463</v>
+        <v>3379.74503576432</v>
       </c>
       <c r="D332" t="n">
-        <v>5140.47169316339</v>
+        <v>1999.94376285522</v>
       </c>
       <c r="E332" t="s">
         <v>29</v>
@@ -6091,13 +6095,13 @@
         <v>8</v>
       </c>
       <c r="B333" t="n">
-        <v>0.74497347627875</v>
+        <v>0.933169712452103</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0255198548032581</v>
+        <v>0.765726087440194</v>
       </c>
       <c r="D333" t="n">
-        <v>0.638206990746602</v>
+        <v>0.943563353867994</v>
       </c>
       <c r="E333" t="s">
         <v>29</v>
@@ -6108,13 +6112,13 @@
         <v>8</v>
       </c>
       <c r="B334" t="n">
-        <v>2417.0849750348</v>
+        <v>1090.19685833742</v>
       </c>
       <c r="C334" t="n">
-        <v>9677.40110639089</v>
+        <v>2816.57056674105</v>
       </c>
       <c r="D334" t="n">
-        <v>3627.13766359415</v>
+        <v>1377.92580973802</v>
       </c>
       <c r="E334" t="s">
         <v>29</v>
@@ -6176,13 +6180,13 @@
         <v>10</v>
       </c>
       <c r="B338" t="n">
-        <v>1594.36409112892</v>
+        <v>1590.29860200752</v>
       </c>
       <c r="C338" t="n">
-        <v>3390.98744095095</v>
+        <v>3351.84409968126</v>
       </c>
       <c r="D338" t="n">
-        <v>2042.18161744885</v>
+        <v>2027.7879692158</v>
       </c>
       <c r="E338" t="s">
         <v>29</v>
@@ -6193,13 +6197,13 @@
         <v>10</v>
       </c>
       <c r="B339" t="n">
-        <v>0.901467559531637</v>
+        <v>0.901978028963391</v>
       </c>
       <c r="C339" t="n">
-        <v>0.791160213896794</v>
+        <v>0.790266756595979</v>
       </c>
       <c r="D339" t="n">
-        <v>0.930932000611894</v>
+        <v>0.931621411656327</v>
       </c>
       <c r="E339" t="s">
         <v>29</v>
@@ -6210,13 +6214,13 @@
         <v>10</v>
       </c>
       <c r="B340" t="n">
-        <v>1086.95352767583</v>
+        <v>1086.50253068059</v>
       </c>
       <c r="C340" t="n">
-        <v>2953.69663077522</v>
+        <v>2926.5086127159</v>
       </c>
       <c r="D340" t="n">
-        <v>1426.36136460299</v>
+        <v>1421.04909105064</v>
       </c>
       <c r="E340" t="s">
         <v>29</v>
@@ -6230,10 +6234,10 @@
         <v>2042.98747019643</v>
       </c>
       <c r="C341" t="n">
-        <v>3895.38030678199</v>
+        <v>3646.07523085504</v>
       </c>
       <c r="D341" t="n">
-        <v>2450.95140545337</v>
+        <v>2386.17034897458</v>
       </c>
       <c r="E341" t="s">
         <v>29</v>
@@ -6247,10 +6251,10 @@
         <v>0.889204779733321</v>
       </c>
       <c r="C342" t="n">
-        <v>0.790164955896029</v>
+        <v>0.798878929936385</v>
       </c>
       <c r="D342" t="n">
-        <v>0.918833643960522</v>
+        <v>0.921684800051922</v>
       </c>
       <c r="E342" t="s">
         <v>29</v>
@@ -6264,10 +6268,10 @@
         <v>1402.4605926983</v>
       </c>
       <c r="C343" t="n">
-        <v>3410.29451452896</v>
+        <v>3209.42629581025</v>
       </c>
       <c r="D343" t="n">
-        <v>1737.09957967008</v>
+        <v>1703.62154321696</v>
       </c>
       <c r="E343" t="s">
         <v>29</v>
@@ -6329,13 +6333,13 @@
         <v>7</v>
       </c>
       <c r="B347" t="n">
-        <v>58.0448105569383</v>
+        <v>116.419065445239</v>
       </c>
       <c r="C347" t="n">
-        <v>1498.81778458072</v>
+        <v>1524.17383201628</v>
       </c>
       <c r="D347" t="n">
-        <v>614.179771665487</v>
+        <v>631.251780749819</v>
       </c>
       <c r="E347" t="s">
         <v>30</v>
@@ -6346,13 +6350,13 @@
         <v>7</v>
       </c>
       <c r="B348" t="n">
-        <v>0.959643798165153</v>
+        <v>0.814584075517935</v>
       </c>
       <c r="C348" t="n">
-        <v>0.515478294015141</v>
+        <v>0.785342124359385</v>
       </c>
       <c r="D348" t="n">
-        <v>0.754097093633978</v>
+        <v>0.732816913669731</v>
       </c>
       <c r="E348" t="s">
         <v>30</v>
@@ -6363,13 +6367,13 @@
         <v>7</v>
       </c>
       <c r="B349" t="n">
-        <v>38.7798725904418</v>
+        <v>82.2806474454206</v>
       </c>
       <c r="C349" t="n">
-        <v>1276.93592759772</v>
+        <v>1251.77028870292</v>
       </c>
       <c r="D349" t="n">
-        <v>245.139215091654</v>
+        <v>277.195587655004</v>
       </c>
       <c r="E349" t="s">
         <v>30</v>
@@ -6380,13 +6384,13 @@
         <v>8</v>
       </c>
       <c r="B350" t="n">
-        <v>95.8959505511501</v>
+        <v>58.0448105569383</v>
       </c>
       <c r="C350" t="n">
-        <v>1986.84519110543</v>
+        <v>1498.81778458072</v>
       </c>
       <c r="D350" t="n">
-        <v>815.836378620055</v>
+        <v>614.179771665487</v>
       </c>
       <c r="E350" t="s">
         <v>30</v>
@@ -6397,11 +6401,13 @@
         <v>8</v>
       </c>
       <c r="B351" t="n">
-        <v>0.880218705779628</v>
-      </c>
-      <c r="C351"/>
+        <v>0.959643798165153</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.515478294015141</v>
+      </c>
       <c r="D351" t="n">
-        <v>0.231184344672494</v>
+        <v>0.754097093633978</v>
       </c>
       <c r="E351" t="s">
         <v>30</v>
@@ -6412,13 +6418,13 @@
         <v>8</v>
       </c>
       <c r="B352" t="n">
-        <v>61.3986623893458</v>
+        <v>38.7798725904418</v>
       </c>
       <c r="C352" t="n">
-        <v>1714.25442852292</v>
+        <v>1276.93592759772</v>
       </c>
       <c r="D352" t="n">
-        <v>336.874623411608</v>
+        <v>245.139215091654</v>
       </c>
       <c r="E352" t="s">
         <v>30</v>
@@ -6480,13 +6486,13 @@
         <v>10</v>
       </c>
       <c r="B356" t="n">
-        <v>49.1577044498882</v>
+        <v>49.8932137108649</v>
       </c>
       <c r="C356" t="n">
-        <v>1659.38285224368</v>
+        <v>1650.13007136119</v>
       </c>
       <c r="D356" t="n">
-        <v>708.958982003755</v>
+        <v>705.063665712702</v>
       </c>
       <c r="E356" t="s">
         <v>30</v>
@@ -6497,13 +6503,13 @@
         <v>10</v>
       </c>
       <c r="B357" t="n">
-        <v>0.970004218950075</v>
+        <v>0.969090983299382</v>
       </c>
       <c r="C357" t="n">
-        <v>0.721679203364741</v>
+        <v>0.73513143912103</v>
       </c>
       <c r="D357" t="n">
-        <v>0.641096271845906</v>
+        <v>0.64998635736841</v>
       </c>
       <c r="E357" t="s">
         <v>30</v>
@@ -6514,13 +6520,13 @@
         <v>10</v>
       </c>
       <c r="B358" t="n">
-        <v>34.9929285771341</v>
+        <v>35.1426840958902</v>
       </c>
       <c r="C358" t="n">
-        <v>1419.96828810361</v>
+        <v>1410.98659327735</v>
       </c>
       <c r="D358" t="n">
-        <v>286.806630309221</v>
+        <v>285.296122128882</v>
       </c>
       <c r="E358" t="s">
         <v>30</v>
@@ -6534,10 +6540,10 @@
         <v>82.7458054834069</v>
       </c>
       <c r="C359" t="n">
-        <v>3662.64890830167</v>
+        <v>3600.41899940134</v>
       </c>
       <c r="D359" t="n">
-        <v>1497.17686369541</v>
+        <v>1471.80452239621</v>
       </c>
       <c r="E359" t="s">
         <v>30</v>
@@ -6551,10 +6557,10 @@
         <v>0.917077059404689</v>
       </c>
       <c r="C360" t="n">
-        <v>0.0886301313451063</v>
+        <v>0.0872273434325186</v>
       </c>
       <c r="D360" t="n">
-        <v>0.352193178437469</v>
+        <v>0.34198557052664</v>
       </c>
       <c r="E360" t="s">
         <v>30</v>
@@ -6568,10 +6574,10 @@
         <v>54.228142736518</v>
       </c>
       <c r="C361" t="n">
-        <v>3301.4934409397</v>
+        <v>3245.91303815045</v>
       </c>
       <c r="D361" t="n">
-        <v>595.439025770381</v>
+        <v>586.175625305507</v>
       </c>
       <c r="E361" t="s">
         <v>30</v>
@@ -6633,13 +6639,13 @@
         <v>7</v>
       </c>
       <c r="B365" t="n">
-        <v>577.459669191711</v>
+        <v>1373.02809151033</v>
       </c>
       <c r="C365" t="n">
-        <v>1916.28173596582</v>
+        <v>1778.28499775259</v>
       </c>
       <c r="D365" t="n">
-        <v>943.348118786766</v>
+        <v>1448.46632877758</v>
       </c>
       <c r="E365" t="s">
         <v>31</v>
@@ -6650,13 +6656,13 @@
         <v>7</v>
       </c>
       <c r="B366" t="n">
-        <v>0.953505722560806</v>
+        <v>0.724121405677812</v>
       </c>
       <c r="C366" t="n">
-        <v>0.756499441891695</v>
+        <v>0.869325545546394</v>
       </c>
       <c r="D366" t="n">
-        <v>0.902425650572039</v>
+        <v>0.764037519097716</v>
       </c>
       <c r="E366" t="s">
         <v>31</v>
@@ -6667,13 +6673,13 @@
         <v>7</v>
       </c>
       <c r="B367" t="n">
-        <v>396.067844086439</v>
+        <v>1049.80207485667</v>
       </c>
       <c r="C367" t="n">
-        <v>1570.12911805749</v>
+        <v>1471.8251616321</v>
       </c>
       <c r="D367" t="n">
-        <v>591.744723081615</v>
+        <v>1120.13925598591</v>
       </c>
       <c r="E367" t="s">
         <v>31</v>
@@ -6684,13 +6690,13 @@
         <v>8</v>
       </c>
       <c r="B368" t="n">
-        <v>1079.1072356782</v>
+        <v>577.459669191711</v>
       </c>
       <c r="C368" t="n">
-        <v>2110.8985105361</v>
+        <v>1916.28173596582</v>
       </c>
       <c r="D368" t="n">
-        <v>1308.83247287094</v>
+        <v>943.348118786766</v>
       </c>
       <c r="E368" t="s">
         <v>31</v>
@@ -6701,13 +6707,13 @@
         <v>8</v>
       </c>
       <c r="B369" t="n">
-        <v>0.831292186137919</v>
+        <v>0.953505722560806</v>
       </c>
       <c r="C369" t="n">
-        <v>0.793466555112267</v>
+        <v>0.756499441891695</v>
       </c>
       <c r="D369" t="n">
-        <v>0.807021981768962</v>
+        <v>0.902425650572039</v>
       </c>
       <c r="E369" t="s">
         <v>31</v>
@@ -6718,13 +6724,13 @@
         <v>8</v>
       </c>
       <c r="B370" t="n">
-        <v>817.689099523486</v>
+        <v>396.067844086439</v>
       </c>
       <c r="C370" t="n">
-        <v>1777.377638314</v>
+        <v>1570.12911805749</v>
       </c>
       <c r="D370" t="n">
-        <v>977.637189321905</v>
+        <v>591.744723081615</v>
       </c>
       <c r="E370" t="s">
         <v>31</v>
@@ -6786,13 +6792,13 @@
         <v>10</v>
       </c>
       <c r="B374" t="n">
-        <v>538.942448766471</v>
+        <v>539.797282624695</v>
       </c>
       <c r="C374" t="n">
-        <v>1437.52003992235</v>
+        <v>1434.82070640879</v>
       </c>
       <c r="D374" t="n">
-        <v>786.343939483005</v>
+        <v>785.911760068525</v>
       </c>
       <c r="E374" t="s">
         <v>31</v>
@@ -6803,13 +6809,13 @@
         <v>10</v>
       </c>
       <c r="B375" t="n">
-        <v>0.960961971938645</v>
+        <v>0.960832248723315</v>
       </c>
       <c r="C375" t="n">
-        <v>0.850589247365168</v>
+        <v>0.844113828452057</v>
       </c>
       <c r="D375" t="n">
-        <v>0.934834520070371</v>
+        <v>0.933820141282079</v>
       </c>
       <c r="E375" t="s">
         <v>31</v>
@@ -6820,13 +6826,13 @@
         <v>10</v>
       </c>
       <c r="B376" t="n">
-        <v>389.191454154245</v>
+        <v>389.755537386906</v>
       </c>
       <c r="C376" t="n">
-        <v>1104.5131467922</v>
+        <v>1115.76024584742</v>
       </c>
       <c r="D376" t="n">
-        <v>521.250843564329</v>
+        <v>523.787175871923</v>
       </c>
       <c r="E376" t="s">
         <v>31</v>
@@ -6840,10 +6846,10 @@
         <v>1197.67110359123</v>
       </c>
       <c r="C377" t="n">
-        <v>3295.06615499876</v>
+        <v>3323.93742329235</v>
       </c>
       <c r="D377" t="n">
-        <v>1733.47153268162</v>
+        <v>1742.6340386443</v>
       </c>
       <c r="E377" t="s">
         <v>31</v>
@@ -6857,10 +6863,10 @@
         <v>0.790337112224549</v>
       </c>
       <c r="C378" t="n">
-        <v>0.841785391532014</v>
+        <v>0.836845483425425</v>
       </c>
       <c r="D378" t="n">
-        <v>0.717752849475948</v>
+        <v>0.716419255923477</v>
       </c>
       <c r="E378" t="s">
         <v>31</v>
@@ -6874,10 +6880,10 @@
         <v>860.204780291174</v>
       </c>
       <c r="C379" t="n">
-        <v>2895.30601628083</v>
+        <v>2913.03419660821</v>
       </c>
       <c r="D379" t="n">
-        <v>1199.38831962278</v>
+        <v>1202.34301634401</v>
       </c>
       <c r="E379" t="s">
         <v>31</v>
@@ -6939,13 +6945,13 @@
         <v>7</v>
       </c>
       <c r="B383" t="n">
-        <v>3638.14843032913</v>
+        <v>4122.68356208914</v>
       </c>
       <c r="C383" t="n">
-        <v>20993.3214137226</v>
+        <v>24193.0075976828</v>
       </c>
       <c r="D383" t="n">
-        <v>9191.48305031526</v>
+        <v>10569.4860753897</v>
       </c>
       <c r="E383" t="s">
         <v>32</v>
@@ -6956,13 +6962,13 @@
         <v>7</v>
       </c>
       <c r="B384" t="n">
-        <v>0.935162211790002</v>
+        <v>0.916178846520539</v>
       </c>
       <c r="C384" t="n">
-        <v>0.485885178084385</v>
+        <v>0.50115171948927</v>
       </c>
       <c r="D384" t="n">
-        <v>0.652639570808807</v>
+        <v>0.566325173072103</v>
       </c>
       <c r="E384" t="s">
         <v>32</v>
@@ -6973,13 +6979,13 @@
         <v>7</v>
       </c>
       <c r="B385" t="n">
-        <v>2205.08751671744</v>
+        <v>2582.89459912059</v>
       </c>
       <c r="C385" t="n">
-        <v>19615.8229705107</v>
+        <v>22942.9005620209</v>
       </c>
       <c r="D385" t="n">
-        <v>5106.87675901631</v>
+        <v>5976.22892627064</v>
       </c>
       <c r="E385" t="s">
         <v>32</v>
@@ -6990,13 +6996,13 @@
         <v>8</v>
       </c>
       <c r="B386" t="n">
-        <v>10092.8126699297</v>
+        <v>3638.14843032913</v>
       </c>
       <c r="C386" t="n">
-        <v>31570.3552880567</v>
+        <v>20993.3214137226</v>
       </c>
       <c r="D386" t="n">
-        <v>15843.0409063707</v>
+        <v>9191.48305031526</v>
       </c>
       <c r="E386" t="s">
         <v>32</v>
@@ -7007,13 +7013,13 @@
         <v>8</v>
       </c>
       <c r="B387" t="n">
-        <v>0.55368526689465</v>
+        <v>0.935162211790002</v>
       </c>
       <c r="C387" t="n">
-        <v>0.0670306144575985</v>
+        <v>0.485885178084385</v>
       </c>
       <c r="D387" t="n">
-        <v>0.19920054435641</v>
+        <v>0.652639570808807</v>
       </c>
       <c r="E387" t="s">
         <v>32</v>
@@ -7024,13 +7030,13 @@
         <v>8</v>
       </c>
       <c r="B388" t="n">
-        <v>6829.35360815426</v>
+        <v>2205.08751671744</v>
       </c>
       <c r="C388" t="n">
-        <v>29843.06520831</v>
+        <v>19615.8229705107</v>
       </c>
       <c r="D388" t="n">
-        <v>10664.9722081802</v>
+        <v>5106.87675901631</v>
       </c>
       <c r="E388" t="s">
         <v>32</v>
@@ -7092,13 +7098,13 @@
         <v>10</v>
       </c>
       <c r="B392" t="n">
-        <v>2467.81792446082</v>
+        <v>2447.05967328997</v>
       </c>
       <c r="C392" t="n">
-        <v>21191.6381352682</v>
+        <v>21214.5816838785</v>
       </c>
       <c r="D392" t="n">
-        <v>9307.77867009837</v>
+        <v>9312.7959938106</v>
       </c>
       <c r="E392" t="s">
         <v>32</v>
@@ -7109,13 +7115,13 @@
         <v>10</v>
       </c>
       <c r="B393" t="n">
-        <v>0.954594016538856</v>
+        <v>0.955364094881508</v>
       </c>
       <c r="C393" t="n">
-        <v>0.481194060073642</v>
+        <v>0.462271518482941</v>
       </c>
       <c r="D393" t="n">
-        <v>0.547569714082459</v>
+        <v>0.546982531758416</v>
       </c>
       <c r="E393" t="s">
         <v>32</v>
@@ -7126,13 +7132,13 @@
         <v>10</v>
       </c>
       <c r="B394" t="n">
-        <v>1772.51113031568</v>
+        <v>1766.28484588667</v>
       </c>
       <c r="C394" t="n">
-        <v>19843.7579586774</v>
+        <v>19820.5593487614</v>
       </c>
       <c r="D394" t="n">
-        <v>5058.19237183599</v>
+        <v>5048.88021004571</v>
       </c>
       <c r="E394" t="s">
         <v>32</v>
@@ -7245,13 +7251,13 @@
         <v>7</v>
       </c>
       <c r="B401" t="n">
-        <v>3255.4485122051</v>
+        <v>8597.77184428893</v>
       </c>
       <c r="C401" t="n">
-        <v>5718.86053503215</v>
+        <v>11514.504494057</v>
       </c>
       <c r="D401" t="n">
-        <v>3779.22150046012</v>
+        <v>9148.69951756256</v>
       </c>
       <c r="E401" t="s">
         <v>33</v>
@@ -7262,13 +7268,13 @@
         <v>7</v>
       </c>
       <c r="B402" t="n">
-        <v>0.94163194947026</v>
+        <v>0.58966138229876</v>
       </c>
       <c r="C402" t="n">
-        <v>0.81804725418773</v>
+        <v>0.757298721328568</v>
       </c>
       <c r="D402" t="n">
-        <v>0.915680767194071</v>
+        <v>0.510403624252458</v>
       </c>
       <c r="E402" t="s">
         <v>33</v>
@@ -7279,13 +7285,13 @@
         <v>7</v>
       </c>
       <c r="B403" t="n">
-        <v>2388.29086516271</v>
+        <v>6619.72515219566</v>
       </c>
       <c r="C403" t="n">
-        <v>4321.37601062762</v>
+        <v>10639.0997870393</v>
       </c>
       <c r="D403" t="n">
-        <v>2710.47172274019</v>
+        <v>7289.6209246696</v>
       </c>
       <c r="E403" t="s">
         <v>33</v>
@@ -7296,13 +7302,13 @@
         <v>8</v>
       </c>
       <c r="B404" t="n">
-        <v>5420.23247773851</v>
+        <v>3255.4485122051</v>
       </c>
       <c r="C404" t="n">
-        <v>5643.8150160848</v>
+        <v>5718.86053503215</v>
       </c>
       <c r="D404" t="n">
-        <v>5458.13228890984</v>
+        <v>3779.22150046012</v>
       </c>
       <c r="E404" t="s">
         <v>33</v>
@@ -7313,13 +7319,13 @@
         <v>8</v>
       </c>
       <c r="B405" t="n">
-        <v>0.844611325907351</v>
+        <v>0.94163194947026</v>
       </c>
       <c r="C405" t="n">
-        <v>0.68540982278789</v>
+        <v>0.81804725418773</v>
       </c>
       <c r="D405" t="n">
-        <v>0.819891332546603</v>
+        <v>0.915680767194071</v>
       </c>
       <c r="E405" t="s">
         <v>33</v>
@@ -7330,13 +7336,13 @@
         <v>8</v>
       </c>
       <c r="B406" t="n">
-        <v>3916.37757731376</v>
+        <v>2388.29086516271</v>
       </c>
       <c r="C406" t="n">
-        <v>4260.68534754101</v>
+        <v>4321.37601062762</v>
       </c>
       <c r="D406" t="n">
-        <v>3973.76220568497</v>
+        <v>2710.47172274019</v>
       </c>
       <c r="E406" t="s">
         <v>33</v>
@@ -7398,13 +7404,13 @@
         <v>10</v>
       </c>
       <c r="B410" t="n">
-        <v>2642.80169829042</v>
+        <v>2628.69113041409</v>
       </c>
       <c r="C410" t="n">
-        <v>3327.97161976388</v>
+        <v>3364.61387751818</v>
       </c>
       <c r="D410" t="n">
-        <v>2779.96725867391</v>
+        <v>2777.03908083993</v>
       </c>
       <c r="E410" t="s">
         <v>33</v>
@@ -7415,13 +7421,13 @@
         <v>10</v>
       </c>
       <c r="B411" t="n">
-        <v>0.962547882741603</v>
+        <v>0.962945182471112</v>
       </c>
       <c r="C411" t="n">
-        <v>0.796881064681189</v>
+        <v>0.788242810750814</v>
       </c>
       <c r="D411" t="n">
-        <v>0.952451143152496</v>
+        <v>0.952515540988043</v>
       </c>
       <c r="E411" t="s">
         <v>33</v>
@@ -7432,13 +7438,13 @@
         <v>10</v>
       </c>
       <c r="B412" t="n">
-        <v>2046.70767401296</v>
+        <v>2041.58362421784</v>
       </c>
       <c r="C412" t="n">
-        <v>2903.31580104577</v>
+        <v>2984.95037034318</v>
       </c>
       <c r="D412" t="n">
-        <v>2202.45460620074</v>
+        <v>2213.10485078609</v>
       </c>
       <c r="E412" t="s">
         <v>33</v>
@@ -7452,10 +7458,10 @@
         <v>6632.00252418798</v>
       </c>
       <c r="C413" t="n">
-        <v>3498.03804987888</v>
+        <v>3640.21464389179</v>
       </c>
       <c r="D413" t="n">
-        <v>6220.31024953176</v>
+        <v>6233.89190979149</v>
       </c>
       <c r="E413" t="s">
         <v>33</v>
@@ -7469,10 +7475,10 @@
         <v>0.777001997752169</v>
       </c>
       <c r="C414" t="n">
-        <v>0.884175347239465</v>
+        <v>0.841350467192933</v>
       </c>
       <c r="D414" t="n">
-        <v>0.78081725446467</v>
+        <v>0.779452225667718</v>
       </c>
       <c r="E414" t="s">
         <v>33</v>
@@ -7486,10 +7492,10 @@
         <v>5113.19620771573</v>
       </c>
       <c r="C415" t="n">
-        <v>2739.21113307125</v>
+        <v>2847.46828534078</v>
       </c>
       <c r="D415" t="n">
-        <v>4717.53202860832</v>
+        <v>4735.57488731991</v>
       </c>
       <c r="E415" t="s">
         <v>33</v>
@@ -7551,13 +7557,13 @@
         <v>7</v>
       </c>
       <c r="B419" t="n">
-        <v>1413.06298788134</v>
+        <v>3864.88355046549</v>
       </c>
       <c r="C419" t="n">
-        <v>2534.84799968741</v>
+        <v>4982.06900375451</v>
       </c>
       <c r="D419" t="n">
-        <v>1653.74269563113</v>
+        <v>4072.42016192389</v>
       </c>
       <c r="E419" t="s">
         <v>34</v>
@@ -7568,13 +7574,13 @@
         <v>7</v>
       </c>
       <c r="B420" t="n">
-        <v>0.942303168403524</v>
+        <v>0.557790302440774</v>
       </c>
       <c r="C420" t="n">
-        <v>0.381697892269797</v>
+        <v>0.290569144712815</v>
       </c>
       <c r="D420" t="n">
-        <v>0.909836968832755</v>
+        <v>0.481364035739667</v>
       </c>
       <c r="E420" t="s">
         <v>34</v>
@@ -7585,13 +7591,13 @@
         <v>7</v>
       </c>
       <c r="B421" t="n">
-        <v>619.202634065213</v>
+        <v>2562.28352820442</v>
       </c>
       <c r="C421" t="n">
-        <v>1354.01661915771</v>
+        <v>4742.46023913073</v>
       </c>
       <c r="D421" t="n">
-        <v>741.671631580629</v>
+        <v>2925.64631335881</v>
       </c>
       <c r="E421" t="s">
         <v>34</v>
@@ -7602,13 +7608,13 @@
         <v>8</v>
       </c>
       <c r="B422" t="n">
-        <v>2778.49612981353</v>
+        <v>1413.06298788134</v>
       </c>
       <c r="C422" t="n">
-        <v>2761.55339490035</v>
+        <v>2534.84799968741</v>
       </c>
       <c r="D422" t="n">
-        <v>2775.67952250223</v>
+        <v>1653.74269563113</v>
       </c>
       <c r="E422" t="s">
         <v>34</v>
@@ -7619,13 +7625,13 @@
         <v>8</v>
       </c>
       <c r="B423" t="n">
-        <v>0.784828441580265</v>
+        <v>0.942303168403524</v>
       </c>
       <c r="C423" t="n">
-        <v>0.0305612642039675</v>
+        <v>0.381697892269797</v>
       </c>
       <c r="D423" t="n">
-        <v>0.751708235187746</v>
+        <v>0.909836968832755</v>
       </c>
       <c r="E423" t="s">
         <v>34</v>
@@ -7636,13 +7642,13 @@
         <v>8</v>
       </c>
       <c r="B424" t="n">
-        <v>1492.1748354248</v>
+        <v>619.202634065213</v>
       </c>
       <c r="C424" t="n">
-        <v>1412.88887808866</v>
+        <v>1354.01661915771</v>
       </c>
       <c r="D424" t="n">
-        <v>1478.96050920211</v>
+        <v>741.671631580629</v>
       </c>
       <c r="E424" t="s">
         <v>34</v>
@@ -7704,13 +7710,13 @@
         <v>10</v>
       </c>
       <c r="B428" t="n">
-        <v>893.641651716091</v>
+        <v>878.238199425127</v>
       </c>
       <c r="C428" t="n">
-        <v>2763.6328736847</v>
+        <v>2771.77621722137</v>
       </c>
       <c r="D428" t="n">
-        <v>1429.00766383078</v>
+        <v>1424.05336375603</v>
       </c>
       <c r="E428" t="s">
         <v>34</v>
@@ -7721,13 +7727,13 @@
         <v>10</v>
       </c>
       <c r="B429" t="n">
-        <v>0.951439800724598</v>
+        <v>0.953196203467141</v>
       </c>
       <c r="C429" t="n">
-        <v>0.198983968842186</v>
+        <v>0.194192622379317</v>
       </c>
       <c r="D429" t="n">
-        <v>0.86742223698022</v>
+        <v>0.868709678516131</v>
       </c>
       <c r="E429" t="s">
         <v>34</v>
@@ -7738,13 +7744,13 @@
         <v>10</v>
       </c>
       <c r="B430" t="n">
-        <v>506.681046150737</v>
+        <v>502.633603653993</v>
       </c>
       <c r="C430" t="n">
-        <v>1666.7949291888</v>
+        <v>1679.60718397897</v>
       </c>
       <c r="D430" t="n">
-        <v>717.610843066749</v>
+        <v>716.628800076717</v>
       </c>
       <c r="E430" t="s">
         <v>34</v>
@@ -7758,10 +7764,10 @@
         <v>5186.65983762203</v>
       </c>
       <c r="C431" t="n">
-        <v>2469.76463593537</v>
+        <v>2493.08358189952</v>
       </c>
       <c r="D431" t="n">
-        <v>4840.91827915813</v>
+        <v>4842.91006011785</v>
       </c>
       <c r="E431" t="s">
         <v>34</v>
@@ -7775,10 +7781,10 @@
         <v>0.535809278569916</v>
       </c>
       <c r="C432" t="n">
-        <v>0.376051472293671</v>
+        <v>0.474102867857848</v>
       </c>
       <c r="D432" t="n">
-        <v>0.533890117191742</v>
+        <v>0.533712028029607</v>
       </c>
       <c r="E432" t="s">
         <v>34</v>
@@ -7792,10 +7798,10 @@
         <v>2927.33185597866</v>
       </c>
       <c r="C433" t="n">
-        <v>1587.96542549351</v>
+        <v>1333.90313785632</v>
       </c>
       <c r="D433" t="n">
-        <v>2704.10411756447</v>
+        <v>2661.76040295827</v>
       </c>
       <c r="E433" t="s">
         <v>34</v>

--- a/outcome/appendix/model/index/pre-epidemic.xlsx
+++ b/outcome/appendix/model/index/pre-epidemic.xlsx
@@ -728,10 +728,10 @@
         <v>383.471592406014</v>
       </c>
       <c r="C17" t="n">
-        <v>444.746984207032</v>
+        <v>466.596755335333</v>
       </c>
       <c r="D17" t="n">
-        <v>394.345912212715</v>
+        <v>398.531647217106</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -745,10 +745,10 @@
         <v>0.888168750630309</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0329767762250356</v>
+        <v>0.0200541141969525</v>
       </c>
       <c r="D18" t="n">
-        <v>0.887239739455916</v>
+        <v>0.885392104394278</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -762,10 +762,10 @@
         <v>273.776799921481</v>
       </c>
       <c r="C19" t="n">
-        <v>340.263287839541</v>
+        <v>364.450235743033</v>
       </c>
       <c r="D19" t="n">
-        <v>284.857881241158</v>
+        <v>288.889039225073</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -1034,10 +1034,10 @@
         <v>294.738465100833</v>
       </c>
       <c r="C35" t="n">
-        <v>296.43320610885</v>
+        <v>297.343070570294</v>
       </c>
       <c r="D35" t="n">
-        <v>295.021598004266</v>
+        <v>295.174162054129</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1051,10 +1051,10 @@
         <v>0.778995378983527</v>
       </c>
       <c r="C36" t="n">
-        <v>0.655683443404482</v>
+        <v>0.667438192134397</v>
       </c>
       <c r="D36" t="n">
-        <v>0.77503605881244</v>
+        <v>0.775894190319042</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -1068,10 +1068,10 @@
         <v>195.060178683329</v>
       </c>
       <c r="C37" t="n">
-        <v>200.378739036889</v>
+        <v>196.680896077493</v>
       </c>
       <c r="D37" t="n">
-        <v>195.946605408923</v>
+        <v>195.330298249023</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -2870,10 +2870,10 @@
         <v>527.359012668715</v>
       </c>
       <c r="C143" t="n">
-        <v>893.411285761658</v>
+        <v>881.978756020188</v>
       </c>
       <c r="D143" t="n">
-        <v>603.975905526717</v>
+        <v>601.168884657982</v>
       </c>
       <c r="E143" t="s">
         <v>18</v>
@@ -2887,10 +2887,10 @@
         <v>0.899002694615006</v>
       </c>
       <c r="C144" t="n">
-        <v>0.637304794112638</v>
+        <v>0.649392098838686</v>
       </c>
       <c r="D144" t="n">
-        <v>0.862421079795643</v>
+        <v>0.864003816233048</v>
       </c>
       <c r="E144" t="s">
         <v>18</v>
@@ -2904,10 +2904,10 @@
         <v>319.544780259509</v>
       </c>
       <c r="C145" t="n">
-        <v>799.793963693992</v>
+        <v>784.117338666747</v>
       </c>
       <c r="D145" t="n">
-        <v>399.586310831923</v>
+        <v>396.973539994049</v>
       </c>
       <c r="E145" t="s">
         <v>18</v>
@@ -3174,10 +3174,10 @@
         <v>2600.80348269103</v>
       </c>
       <c r="C161" t="n">
-        <v>1436.45818563655</v>
+        <v>1496.54997622736</v>
       </c>
       <c r="D161" t="n">
-        <v>2445.5505820766</v>
+        <v>2451.54902083136</v>
       </c>
       <c r="E161" t="s">
         <v>19</v>
@@ -3191,10 +3191,10 @@
         <v>0.292364433472787</v>
       </c>
       <c r="C162" t="n">
-        <v>0.624590364520446</v>
+        <v>0.478626448338636</v>
       </c>
       <c r="D162" t="n">
-        <v>0.297287450364919</v>
+        <v>0.296241024164364</v>
       </c>
       <c r="E162" t="s">
         <v>19</v>
@@ -3208,10 +3208,10 @@
         <v>594.824109276843</v>
       </c>
       <c r="C163" t="n">
-        <v>791.444741775096</v>
+        <v>902.489355089583</v>
       </c>
       <c r="D163" t="n">
-        <v>627.594214693219</v>
+        <v>646.101650245633</v>
       </c>
       <c r="E163" t="s">
         <v>19</v>
@@ -4398,10 +4398,10 @@
         <v>70.2939827794162</v>
       </c>
       <c r="C233" t="n">
-        <v>67.517654187165</v>
+        <v>60.7187254074313</v>
       </c>
       <c r="D233" t="n">
-        <v>69.8389262301738</v>
+        <v>68.7907257436972</v>
       </c>
       <c r="E233" t="s">
         <v>23</v>
@@ -4415,10 +4415,10 @@
         <v>0.534382106597109</v>
       </c>
       <c r="C234" t="n">
-        <v>0.42093839024728</v>
+        <v>0.39311193395049</v>
       </c>
       <c r="D234" t="n">
-        <v>0.562331128386016</v>
+        <v>0.574733737478395</v>
       </c>
       <c r="E234" t="s">
         <v>23</v>
@@ -4432,10 +4432,10 @@
         <v>53.4492730571038</v>
       </c>
       <c r="C235" t="n">
-        <v>56.7911823191342</v>
+        <v>52.6625757289202</v>
       </c>
       <c r="D235" t="n">
-        <v>54.0062579341088</v>
+        <v>53.3181568357398</v>
       </c>
       <c r="E235" t="s">
         <v>23</v>
@@ -4704,10 +4704,10 @@
         <v>42.7856493697859</v>
       </c>
       <c r="C251" t="n">
-        <v>32.3033149759744</v>
+        <v>29.1766308860612</v>
       </c>
       <c r="D251" t="n">
-        <v>41.2241092857249</v>
+        <v>40.8336763587621</v>
       </c>
       <c r="E251" t="s">
         <v>24</v>
@@ -4721,10 +4721,10 @@
         <v>0.701797032349928</v>
       </c>
       <c r="C252" t="n">
-        <v>0.727597605864099</v>
+        <v>0.752453258701156</v>
       </c>
       <c r="D252" t="n">
-        <v>0.73444632781328</v>
+        <v>0.736633063863183</v>
       </c>
       <c r="E252" t="s">
         <v>24</v>
@@ -4738,10 +4738,10 @@
         <v>29.0613129428882</v>
       </c>
       <c r="C253" t="n">
-        <v>25.9002834119154</v>
+        <v>23.747476452969</v>
       </c>
       <c r="D253" t="n">
-        <v>28.5344746877261</v>
+        <v>28.1756735279017</v>
       </c>
       <c r="E253" t="s">
         <v>24</v>
@@ -5010,10 +5010,10 @@
         <v>536.230470163635</v>
       </c>
       <c r="C269" t="n">
-        <v>687.380454504394</v>
+        <v>724.275398679652</v>
       </c>
       <c r="D269" t="n">
-        <v>564.241005672552</v>
+        <v>571.881461900415</v>
       </c>
       <c r="E269" t="s">
         <v>25</v>
@@ -5027,10 +5027,10 @@
         <v>0.893490885890576</v>
       </c>
       <c r="C270" t="n">
-        <v>0.759295072104415</v>
+        <v>0.746623195510603</v>
       </c>
       <c r="D270" t="n">
-        <v>0.913888315869676</v>
+        <v>0.912050321341644</v>
       </c>
       <c r="E270" t="s">
         <v>25</v>
@@ -5044,10 +5044,10 @@
         <v>343.623623431781</v>
       </c>
       <c r="C271" t="n">
-        <v>564.007219340404</v>
+        <v>595.909081455854</v>
       </c>
       <c r="D271" t="n">
-        <v>380.354222749885</v>
+        <v>385.671199769127</v>
       </c>
       <c r="E271" t="s">
         <v>25</v>
@@ -5316,10 +5316,10 @@
         <v>679.664405300572</v>
       </c>
       <c r="C287" t="n">
-        <v>2812.74491742013</v>
+        <v>2816.52892122562</v>
       </c>
       <c r="D287" t="n">
-        <v>1305.19810052189</v>
+        <v>1306.55741570888</v>
       </c>
       <c r="E287" t="s">
         <v>26</v>
@@ -5333,10 +5333,10 @@
         <v>0.829515710037644</v>
       </c>
       <c r="C288" t="n">
-        <v>0.163123450746797</v>
+        <v>0.172778832950695</v>
       </c>
       <c r="D288" t="n">
-        <v>0.665365324684946</v>
+        <v>0.66595721866037</v>
       </c>
       <c r="E288" t="s">
         <v>26</v>
@@ -5350,10 +5350,10 @@
         <v>445.526608135485</v>
       </c>
       <c r="C289" t="n">
-        <v>2510.95296222309</v>
+        <v>2529.29619867897</v>
       </c>
       <c r="D289" t="n">
-        <v>789.764333816752</v>
+        <v>792.821539892733</v>
       </c>
       <c r="E289" t="s">
         <v>26</v>
@@ -5622,10 +5622,10 @@
         <v>6659.57636874109</v>
       </c>
       <c r="C305" t="n">
-        <v>18977.0923189219</v>
+        <v>19220.3796503841</v>
       </c>
       <c r="D305" t="n">
-        <v>9847.8408795732</v>
+        <v>9926.16727779301</v>
       </c>
       <c r="E305" t="s">
         <v>27</v>
@@ -5639,10 +5639,10 @@
         <v>0.683508495834062</v>
       </c>
       <c r="C306" t="n">
-        <v>0.610546080754245</v>
+        <v>0.587002327314255</v>
       </c>
       <c r="D306" t="n">
-        <v>0.456290455661925</v>
+        <v>0.449568676821669</v>
       </c>
       <c r="E306" t="s">
         <v>27</v>
@@ -5656,10 +5656,10 @@
         <v>4277.81634410233</v>
       </c>
       <c r="C307" t="n">
-        <v>18368.4907173864</v>
+        <v>18581.9261063993</v>
       </c>
       <c r="D307" t="n">
-        <v>6626.26207298302</v>
+        <v>6661.8346378185</v>
       </c>
       <c r="E307" t="s">
         <v>27</v>
@@ -5928,10 +5928,10 @@
         <v>1145.48267134023</v>
       </c>
       <c r="C323" t="n">
-        <v>3032.08043083539</v>
+        <v>3079.25998848005</v>
       </c>
       <c r="D323" t="n">
-        <v>1620.39935873633</v>
+        <v>1635.16027901232</v>
       </c>
       <c r="E323" t="s">
         <v>28</v>
@@ -5945,10 +5945,10 @@
         <v>0.878106884396577</v>
       </c>
       <c r="C324" t="n">
-        <v>0.601507740479384</v>
+        <v>0.591287462859499</v>
       </c>
       <c r="D324" t="n">
-        <v>0.846507830179814</v>
+        <v>0.843810735938663</v>
       </c>
       <c r="E324" t="s">
         <v>28</v>
@@ -5962,10 +5962,10 @@
         <v>768.854477915248</v>
       </c>
       <c r="C325" t="n">
-        <v>2871.58606350614</v>
+        <v>2911.08367723422</v>
       </c>
       <c r="D325" t="n">
-        <v>1119.3097421804</v>
+        <v>1125.89267780174</v>
       </c>
       <c r="E325" t="s">
         <v>28</v>
@@ -6234,10 +6234,10 @@
         <v>2042.98747019643</v>
       </c>
       <c r="C341" t="n">
-        <v>3646.07523085504</v>
+        <v>3925.55075884609</v>
       </c>
       <c r="D341" t="n">
-        <v>2386.17034897458</v>
+        <v>2458.96108743697</v>
       </c>
       <c r="E341" t="s">
         <v>29</v>
@@ -6251,10 +6251,10 @@
         <v>0.889204779733321</v>
       </c>
       <c r="C342" t="n">
-        <v>0.798878929936385</v>
+        <v>0.788449541646636</v>
       </c>
       <c r="D342" t="n">
-        <v>0.921684800051922</v>
+        <v>0.918575886857724</v>
       </c>
       <c r="E342" t="s">
         <v>29</v>
@@ -6268,10 +6268,10 @@
         <v>1402.4605926983</v>
       </c>
       <c r="C343" t="n">
-        <v>3209.42629581025</v>
+        <v>3443.68865558126</v>
       </c>
       <c r="D343" t="n">
-        <v>1703.62154321696</v>
+        <v>1742.66526984546</v>
       </c>
       <c r="E343" t="s">
         <v>29</v>
@@ -6540,10 +6540,10 @@
         <v>82.7458054834069</v>
       </c>
       <c r="C359" t="n">
-        <v>3600.41899940134</v>
+        <v>3665.81679523831</v>
       </c>
       <c r="D359" t="n">
-        <v>1471.80452239621</v>
+        <v>1498.46850249829</v>
       </c>
       <c r="E359" t="s">
         <v>30</v>
@@ -6557,10 +6557,10 @@
         <v>0.917077059404689</v>
       </c>
       <c r="C360" t="n">
-        <v>0.0872273434325186</v>
+        <v>0.0874757499855355</v>
       </c>
       <c r="D360" t="n">
-        <v>0.34198557052664</v>
+        <v>0.351062262196813</v>
       </c>
       <c r="E360" t="s">
         <v>30</v>
@@ -6574,10 +6574,10 @@
         <v>54.228142736518</v>
       </c>
       <c r="C361" t="n">
-        <v>3245.91303815045</v>
+        <v>3302.9863527945</v>
       </c>
       <c r="D361" t="n">
-        <v>586.175625305507</v>
+        <v>595.687844412849</v>
       </c>
       <c r="E361" t="s">
         <v>30</v>
@@ -6846,10 +6846,10 @@
         <v>1197.67110359123</v>
       </c>
       <c r="C377" t="n">
-        <v>3323.93742329235</v>
+        <v>2902.43174991513</v>
       </c>
       <c r="D377" t="n">
-        <v>1742.6340386443</v>
+        <v>1612.25465445147</v>
       </c>
       <c r="E377" t="s">
         <v>31</v>
@@ -6863,10 +6863,10 @@
         <v>0.790337112224549</v>
       </c>
       <c r="C378" t="n">
-        <v>0.836845483425425</v>
+        <v>0.863454844408627</v>
       </c>
       <c r="D378" t="n">
-        <v>0.716419255923477</v>
+        <v>0.739312204488246</v>
       </c>
       <c r="E378" t="s">
         <v>31</v>
@@ -6880,10 +6880,10 @@
         <v>860.204780291174</v>
       </c>
       <c r="C379" t="n">
-        <v>2913.03419660821</v>
+        <v>2521.31976697704</v>
       </c>
       <c r="D379" t="n">
-        <v>1202.34301634401</v>
+        <v>1137.05727807215</v>
       </c>
       <c r="E379" t="s">
         <v>31</v>
@@ -7458,10 +7458,10 @@
         <v>6632.00252418798</v>
       </c>
       <c r="C413" t="n">
-        <v>3640.21464389179</v>
+        <v>3640.51224684052</v>
       </c>
       <c r="D413" t="n">
-        <v>6233.89190979149</v>
+        <v>6233.92087458573</v>
       </c>
       <c r="E413" t="s">
         <v>33</v>
@@ -7475,10 +7475,10 @@
         <v>0.777001997752169</v>
       </c>
       <c r="C414" t="n">
-        <v>0.841350467192933</v>
+        <v>0.843993815193456</v>
       </c>
       <c r="D414" t="n">
-        <v>0.779452225667718</v>
+        <v>0.779455597540005</v>
       </c>
       <c r="E414" t="s">
         <v>33</v>
@@ -7492,10 +7492,10 @@
         <v>5113.19620771573</v>
       </c>
       <c r="C415" t="n">
-        <v>2847.46828534078</v>
+        <v>2791.97740581897</v>
       </c>
       <c r="D415" t="n">
-        <v>4735.57488731991</v>
+        <v>4726.3264073996</v>
       </c>
       <c r="E415" t="s">
         <v>33</v>
@@ -7764,10 +7764,10 @@
         <v>5186.65983762203</v>
       </c>
       <c r="C431" t="n">
-        <v>2493.08358189952</v>
+        <v>2421.37060290752</v>
       </c>
       <c r="D431" t="n">
-        <v>4842.91006011785</v>
+        <v>4836.84189240306</v>
       </c>
       <c r="E431" t="s">
         <v>34</v>
@@ -7781,10 +7781,10 @@
         <v>0.535809278569916</v>
       </c>
       <c r="C432" t="n">
-        <v>0.474102867857848</v>
+        <v>0.399035854794</v>
       </c>
       <c r="D432" t="n">
-        <v>0.533712028029607</v>
+        <v>0.534178550353141</v>
       </c>
       <c r="E432" t="s">
         <v>34</v>
@@ -7798,10 +7798,10 @@
         <v>2927.33185597866</v>
       </c>
       <c r="C433" t="n">
-        <v>1333.90313785632</v>
+        <v>1459.11960628762</v>
       </c>
       <c r="D433" t="n">
-        <v>2661.76040295827</v>
+        <v>2682.62981436349</v>
       </c>
       <c r="E433" t="s">
         <v>34</v>
